--- a/excel/main_DZ.xlsx
+++ b/excel/main_DZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tsib\2022-1\projects\Vitya_project_DZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4NR_Operator_34\PycharmProjects\Dynamic_protection\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,11 +19,7 @@
     <definedName name="Tables_next">'База данных материалов'!$A$190</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1871,7 +1867,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1980,6 +1976,18 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC6D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -2500,48 +2508,6 @@
   </cellStyleXfs>
   <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3086,6 +3052,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3110,18 +3118,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -3134,9 +3136,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3152,6 +3151,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3167,9 +3169,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3202,6 +3201,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4667,7 +4675,7 @@
   <dimension ref="A1:AC75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ27" sqref="AQ26:AQ27"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4697,420 +4705,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13" t="s">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14" t="s">
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="15" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="2">
         <v>4.5</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="5">
         <f>J3/1000</f>
         <v>1.5E-3</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="21" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="8">
         <v>1.5</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="11">
         <f>J4/1000</f>
         <v>1.5E-3</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="27" t="s">
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="14">
         <f>M8*1000000</f>
         <v>3.8760877862594398</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="21" t="s">
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="16">
         <v>1.5</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="18">
         <f>(SQRT(M13/M11)/(1+SQRT(M13/M11)))*M17</f>
         <v>4648.7345851958817</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="34" t="s">
+      <c r="P4" s="199"/>
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="21">
         <f>M9*1000</f>
         <v>65.634096818667643</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="37" t="s">
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="8">
         <v>68</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="24">
         <f>COS(J5*PI()/180)</f>
         <v>0.37460659341591196</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="39" t="s">
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="26">
         <f>M10*1000</f>
         <v>586.11399772016898</v>
       </c>
-      <c r="V5" s="41" t="s">
+      <c r="V5" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="42" t="s">
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="29">
         <v>7.85</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="24">
         <f>SIN(J5*PI()/180)</f>
         <v>0.92718385456678742</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="42" t="s">
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="29">
         <v>7.85</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="24">
         <f>TAN(J5*PI()/180)</f>
         <v>2.4750868534162964</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="N7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="4" t="s">
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="47">
+      <c r="U7" s="203"/>
+      <c r="V7" s="33">
         <f>M18</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="42" t="s">
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="8">
         <v>500</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="48" t="s">
+      <c r="L8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="35">
         <f>((J2*M2)/(M4*M5))</f>
         <v>3.8760877862594398E-6</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="3" t="s">
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="51">
+      <c r="U8" s="204"/>
+      <c r="V8" s="37">
         <f>M21</f>
         <v>4.2153780204341177E-6</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="42" t="s">
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="8">
         <v>260</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="39">
         <f>(SQRT(M10^2-((SQRT(M10^2-M16^2))-(2*M8*SQRT(M14/M11)))^2))</f>
         <v>6.5634096818667637E-2</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="P9" s="206"/>
+      <c r="Q9" s="206"/>
+      <c r="R9" s="206"/>
+      <c r="S9" s="206"/>
+      <c r="T9" s="206"/>
+      <c r="U9" s="206"/>
+      <c r="V9" s="206"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="42" t="s">
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="8">
         <v>138</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="39">
         <f>((SQRT(M11*M13))/((SQRT(2*M14))*(SQRT(M13)+SQRT(M11))))*(M16*M17)</f>
         <v>0.58611399772016903</v>
       </c>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="O10" s="207" t="s">
@@ -5120,14 +5128,14 @@
       <c r="Q10" s="207"/>
       <c r="R10" s="207"/>
       <c r="S10" s="207"/>
-      <c r="T10" s="56" t="s">
+      <c r="T10" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="U10" s="57">
+      <c r="U10" s="43">
         <f>M22*1000000</f>
         <v>1.25</v>
       </c>
-      <c r="V10" s="58" t="s">
+      <c r="V10" s="44" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5142,23 +5150,23 @@
       <c r="F11" s="208"/>
       <c r="G11" s="208"/>
       <c r="H11" s="208"/>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="29">
         <v>10</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="24">
         <f>J6*1000</f>
         <v>7850</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="32" t="s">
         <v>49</v>
       </c>
       <c r="O11" s="209" t="s">
@@ -5183,23 +5191,23 @@
       <c r="F12" s="210"/>
       <c r="G12" s="210"/>
       <c r="H12" s="210"/>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="29">
         <v>1.6</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="24">
         <f>J7*1000</f>
         <v>7850</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="32" t="s">
         <v>49</v>
       </c>
       <c r="O12" s="211" t="s">
@@ -5209,14 +5217,14 @@
       <c r="Q12" s="211"/>
       <c r="R12" s="211"/>
       <c r="S12" s="211"/>
-      <c r="T12" s="60" t="s">
+      <c r="T12" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="61">
+      <c r="U12" s="47">
         <f>M23*1000000</f>
         <v>2.151123024283959</v>
       </c>
-      <c r="V12" s="62" t="s">
+      <c r="V12" s="48" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5231,23 +5239,23 @@
       <c r="F13" s="210"/>
       <c r="G13" s="210"/>
       <c r="H13" s="210"/>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="29">
         <v>8000</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="24">
         <f>J15*1000</f>
         <v>8960</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="49" t="s">
         <v>49</v>
       </c>
       <c r="O13" s="212" t="s">
@@ -5261,7 +5269,7 @@
       <c r="U13" s="212"/>
       <c r="V13" s="212"/>
       <c r="W13" s="212"/>
-      <c r="AC13" s="64"/>
+      <c r="AC13" s="50"/>
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="213" t="s">
@@ -5274,23 +5282,23 @@
       <c r="F14" s="213"/>
       <c r="G14" s="213"/>
       <c r="H14" s="213"/>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="29">
         <v>0.5</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="24">
         <f>J8*1000000</f>
         <v>500000000</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="32" t="s">
         <v>59</v>
       </c>
       <c r="O14" s="214" t="s">
@@ -5301,2471 +5309,2471 @@
       <c r="R14" s="214"/>
       <c r="S14" s="214"/>
       <c r="T14" s="214"/>
-      <c r="U14" s="65" t="s">
+      <c r="U14" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="V14" s="66">
+      <c r="V14" s="52">
         <f>(J13*J13)/(2*(J19*J19-1))</f>
         <v>4000000</v>
       </c>
-      <c r="W14" s="67" t="s">
+      <c r="W14" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="215" t="s">
+      <c r="A15" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="42" t="s">
+      <c r="B15" s="243"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="29">
         <v>8.9600000000000009</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="24">
         <f>J16*1000000</f>
         <v>824000000</v>
       </c>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="216" t="s">
+      <c r="O15" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="216"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="216"/>
-      <c r="S15" s="216"/>
-      <c r="T15" s="216"/>
-      <c r="U15" s="216"/>
-      <c r="V15" s="216"/>
-      <c r="W15" s="216"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="215"/>
+      <c r="R15" s="215"/>
+      <c r="S15" s="215"/>
+      <c r="T15" s="215"/>
+      <c r="U15" s="215"/>
+      <c r="V15" s="215"/>
+      <c r="W15" s="215"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="215" t="s">
+      <c r="A16" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="42" t="s">
+      <c r="B16" s="243"/>
+      <c r="C16" s="243"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="29">
         <v>824</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="24">
         <f>J17/1000</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N16" s="46" t="s">
+      <c r="N16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="68"/>
-      <c r="P16" s="69" t="s">
+      <c r="O16" s="54"/>
+      <c r="P16" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="70">
+      <c r="Q16" s="56">
         <f>(M19*M18)/(M11*M2)</f>
         <v>1.3588110403397027</v>
       </c>
-      <c r="R16" s="69" t="s">
+      <c r="R16" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="70">
+      <c r="S16" s="56">
         <f>(M19*M18)/(M12*M3)</f>
         <v>1.3588110403397027</v>
       </c>
-      <c r="T16" s="71"/>
-      <c r="U16" s="72" t="s">
+      <c r="T16" s="57"/>
+      <c r="U16" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="73" t="s">
+      <c r="V16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="W16" s="74"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="215" t="s">
+      <c r="A17" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="215"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="42" t="s">
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="243"/>
+      <c r="I17" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="8">
         <v>45</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="24">
         <f>J18*1000</f>
         <v>9000</v>
       </c>
-      <c r="N17" s="46" t="s">
+      <c r="N17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="217" t="s">
+      <c r="O17" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="217"/>
-      <c r="Q17" s="217"/>
-      <c r="R17" s="217"/>
-      <c r="S17" s="217"/>
-      <c r="T17" s="75" t="s">
+      <c r="P17" s="216"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="216"/>
+      <c r="S17" s="216"/>
+      <c r="T17" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="U17" s="76">
+      <c r="U17" s="62">
         <f>(SQRT(2*V14))*(SQRT((3*Q16)/(3+Q16+ (((S16/Q16)*((Q16+2)/(S16+2)^2)))*(Q16+2*S16+6))))</f>
         <v>2105.1416735380244</v>
       </c>
-      <c r="V17" s="76">
+      <c r="V17" s="62">
         <f>U17/M34</f>
         <v>1734.4794518609449</v>
       </c>
-      <c r="W17" s="77" t="s">
+      <c r="W17" s="63" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="218" t="s">
+      <c r="A18" s="244" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="59" t="s">
+      <c r="B18" s="244"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="29">
         <v>9</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="24">
         <f>J11/1000</f>
         <v>0.01</v>
       </c>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="217"/>
-      <c r="P18" s="217"/>
-      <c r="Q18" s="217"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="75" t="s">
+      <c r="O18" s="216"/>
+      <c r="P18" s="216"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="216"/>
+      <c r="S18" s="216"/>
+      <c r="T18" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="76">
+      <c r="U18" s="62">
         <f>U17*(S16/Q16)*((Q16+2)/(S16+2))</f>
         <v>2105.1416735380244</v>
       </c>
-      <c r="V18" s="76">
+      <c r="V18" s="62">
         <f>U18/M35</f>
         <v>1734.4794518609449</v>
       </c>
-      <c r="W18" s="77" t="s">
+      <c r="W18" s="63" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="219" t="s">
+      <c r="A19" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="42" t="s">
+      <c r="B19" s="217"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="8">
         <v>3</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="24">
         <f>J12*1000</f>
         <v>1600</v>
       </c>
-      <c r="N19" s="46" t="s">
+      <c r="N19" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="220" t="s">
+      <c r="O19" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="P19" s="220"/>
-      <c r="Q19" s="220"/>
-      <c r="R19" s="220"/>
-      <c r="S19" s="220"/>
-      <c r="T19" s="75" t="s">
+      <c r="P19" s="218"/>
+      <c r="Q19" s="218"/>
+      <c r="R19" s="218"/>
+      <c r="S19" s="218"/>
+      <c r="T19" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="U19" s="79">
+      <c r="U19" s="65">
         <f>(SQRT(2*V14))*(SQRT((3*Q16^2)/(Q16^2+5*Q16+4)))</f>
         <v>1872.3364414001421</v>
       </c>
-      <c r="V19" s="71"/>
-      <c r="W19" s="77" t="s">
+      <c r="V19" s="57"/>
+      <c r="W19" s="63" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="221" t="s">
+      <c r="A20" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="221"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="21" t="s">
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="80">
+      <c r="J20" s="66">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="81" t="s">
+      <c r="L20" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="24">
         <f>J14/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N20" s="63" t="s">
+      <c r="N20" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="O20" s="220" t="s">
+      <c r="O20" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="220"/>
-      <c r="S20" s="220"/>
-      <c r="T20" s="75" t="s">
+      <c r="P20" s="218"/>
+      <c r="Q20" s="218"/>
+      <c r="R20" s="218"/>
+      <c r="S20" s="218"/>
+      <c r="T20" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="U20" s="79">
+      <c r="U20" s="65">
         <f>(SQRT(6*V14))*(Q16/(Q16+2))</f>
         <v>1981.8880346159722</v>
       </c>
-      <c r="V20" s="71"/>
-      <c r="W20" s="77" t="s">
+      <c r="V20" s="57"/>
+      <c r="W20" s="63" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="221"/>
-      <c r="B21" s="221"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="21" t="s">
+      <c r="A21" s="219"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="66">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="55" t="s">
+      <c r="L21" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="M21" s="82">
+      <c r="M21" s="68">
         <f>(M20/2)/((1-(M20/2))/(1*M16*M5))</f>
         <v>4.2153780204341177E-6</v>
       </c>
-      <c r="N21" s="83"/>
-      <c r="O21" s="220" t="s">
+      <c r="N21" s="69"/>
+      <c r="O21" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="P21" s="220"/>
-      <c r="Q21" s="220"/>
-      <c r="R21" s="220"/>
-      <c r="S21" s="220"/>
-      <c r="T21" s="84" t="s">
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="218"/>
+      <c r="S21" s="218"/>
+      <c r="T21" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="U21" s="85">
+      <c r="U21" s="71">
         <f>(J13/SQRT(J19^2-1))*SQRT((3*Q16/(6+Q16)))</f>
         <v>2105.141673538024</v>
       </c>
-      <c r="V21" s="71"/>
-      <c r="W21" s="86" t="s">
+      <c r="V21" s="57"/>
+      <c r="W21" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="219" t="s">
+      <c r="A22" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="42" t="s">
+      <c r="B22" s="217"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="8">
         <v>20000</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="87" t="s">
+      <c r="L22" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="88">
+      <c r="M22" s="74">
         <f>(M18/J13)</f>
         <v>1.2500000000000001E-6</v>
       </c>
-      <c r="N22" s="89" t="s">
+      <c r="N22" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="222" t="s">
+      <c r="O22" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="P22" s="222"/>
-      <c r="Q22" s="222"/>
-      <c r="R22" s="222"/>
-      <c r="S22" s="222"/>
-      <c r="T22" s="90" t="s">
+      <c r="P22" s="220"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="220"/>
+      <c r="S22" s="220"/>
+      <c r="T22" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="U22" s="91">
+      <c r="U22" s="77">
         <f>(M11*M2*U17/M38)*1000000</f>
         <v>1.5492527003693899</v>
       </c>
-      <c r="V22" s="91">
+      <c r="V22" s="77">
         <f>(M11*M2*V17/M38)*1000000</f>
         <v>1.2764684716039143</v>
       </c>
-      <c r="W22" s="77" t="s">
+      <c r="W22" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="219" t="s">
+      <c r="A23" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="219"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="42" t="s">
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="8">
         <v>0.8</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="87" t="s">
+      <c r="L23" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="88">
+      <c r="M23" s="74">
         <f>(M18/M4)</f>
         <v>2.151123024283959E-6</v>
       </c>
-      <c r="N23" s="89" t="s">
+      <c r="N23" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="222"/>
-      <c r="P23" s="222"/>
-      <c r="Q23" s="222"/>
-      <c r="R23" s="222"/>
-      <c r="S23" s="222"/>
-      <c r="T23" s="90" t="s">
+      <c r="O23" s="220"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="220"/>
+      <c r="S23" s="220"/>
+      <c r="T23" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="U23" s="91">
+      <c r="U23" s="77">
         <f>(M12*M3*U18/M38)*1000000</f>
         <v>1.5492527003693899</v>
       </c>
-      <c r="V23" s="91">
+      <c r="V23" s="77">
         <f>(M12*M3*V18/M38)*1000000</f>
         <v>1.2764684716039143</v>
       </c>
-      <c r="W23" s="77" t="s">
+      <c r="W23" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="223" t="s">
+      <c r="A24" s="245" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="223"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="92" t="s">
+      <c r="B24" s="245"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="93">
+      <c r="J24" s="79">
         <v>1.2</v>
       </c>
-      <c r="K24" s="94" t="s">
+      <c r="K24" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="95" t="s">
+      <c r="L24" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="M24" s="96">
+      <c r="M24" s="82">
         <f>M18*M31*M32*M19</f>
         <v>0.57408000000000003</v>
       </c>
-      <c r="N24" s="97" t="s">
+      <c r="N24" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="O24" s="222" t="s">
+      <c r="O24" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="P24" s="222"/>
-      <c r="Q24" s="222"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="75" t="s">
+      <c r="P24" s="220"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="220"/>
+      <c r="S24" s="220"/>
+      <c r="T24" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="U24" s="98">
+      <c r="U24" s="84">
         <f>2*ASIN(U17/(2*J13))</f>
         <v>0.26390789659723252</v>
       </c>
-      <c r="V24" s="98">
+      <c r="V24" s="84">
         <f>2*ASIN(V17/(2*J13))</f>
         <v>0.21723683819630357</v>
       </c>
-      <c r="W24" s="77" t="s">
+      <c r="W24" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="99"/>
-      <c r="L25" s="95" t="s">
+      <c r="K25" s="85"/>
+      <c r="L25" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="96">
+      <c r="M25" s="82">
         <f>M2*M31*M32*M11</f>
         <v>0.42248700000000006</v>
       </c>
-      <c r="N25" s="97" t="s">
+      <c r="N25" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="O25" s="222"/>
-      <c r="P25" s="222"/>
-      <c r="Q25" s="222"/>
-      <c r="R25" s="222"/>
-      <c r="S25" s="222"/>
-      <c r="T25" s="75" t="s">
+      <c r="O25" s="220"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="U25" s="100">
+      <c r="U25" s="86">
         <f>2*ASIN(U18/(2*J13))</f>
         <v>0.26390789659723252</v>
       </c>
-      <c r="V25" s="98">
+      <c r="V25" s="84">
         <f>2*ASIN(V18/(2*J13))</f>
         <v>0.21723683819630357</v>
       </c>
-      <c r="W25" s="77" t="s">
+      <c r="W25" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="101"/>
-      <c r="L26" s="95" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="87"/>
+      <c r="L26" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="M26" s="96">
+      <c r="M26" s="82">
         <f>M3*M31*M32*M12</f>
         <v>0.42248700000000006</v>
       </c>
-      <c r="N26" s="97" t="s">
+      <c r="N26" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="O26" s="224" t="s">
+      <c r="O26" s="221" t="s">
         <v>104</v>
       </c>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="224"/>
-      <c r="V26" s="224"/>
-      <c r="W26" s="224"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="102" t="s">
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="M27" s="103">
+      <c r="M27" s="89">
         <f>M18*(1+U18/U17)^(-1)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N27" s="97" t="s">
+      <c r="N27" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="O27" s="225" t="s">
+      <c r="O27" s="222" t="s">
         <v>106</v>
       </c>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="225"/>
-      <c r="R27" s="225"/>
-      <c r="S27" s="225"/>
-      <c r="T27" s="104" t="s">
+      <c r="P27" s="222"/>
+      <c r="Q27" s="222"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="U27" s="105">
+      <c r="U27" s="91">
         <f>V17</f>
         <v>1734.4794518609449</v>
       </c>
-      <c r="V27" s="71"/>
-      <c r="W27" s="106" t="s">
+      <c r="V27" s="57"/>
+      <c r="W27" s="92" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="102" t="s">
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="M28" s="103">
+      <c r="M28" s="89">
         <f>M18-M27</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N28" s="97" t="s">
+      <c r="N28" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="225"/>
-      <c r="P28" s="225"/>
-      <c r="Q28" s="225"/>
-      <c r="R28" s="225"/>
-      <c r="S28" s="225"/>
-      <c r="T28" s="107" t="s">
+      <c r="O28" s="222"/>
+      <c r="P28" s="222"/>
+      <c r="Q28" s="222"/>
+      <c r="R28" s="222"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="U28" s="76">
+      <c r="U28" s="62">
         <f>V18</f>
         <v>1734.4794518609449</v>
       </c>
-      <c r="V28" s="71"/>
-      <c r="W28" s="86" t="s">
+      <c r="V28" s="57"/>
+      <c r="W28" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="78" t="s">
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="M29" s="100">
+      <c r="M29" s="86">
         <f>(M19*M27)/(M11*M2)</f>
         <v>0.67940552016985134</v>
       </c>
-      <c r="N29" s="97" t="s">
+      <c r="N29" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="226" t="s">
+      <c r="O29" s="223" t="s">
         <v>90</v>
       </c>
-      <c r="P29" s="226"/>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="226"/>
-      <c r="S29" s="226"/>
-      <c r="T29" s="90" t="s">
+      <c r="P29" s="223"/>
+      <c r="Q29" s="223"/>
+      <c r="R29" s="223"/>
+      <c r="S29" s="223"/>
+      <c r="T29" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="U29" s="108">
+      <c r="U29" s="94">
         <f>(2*U27*M11*M2)/M39</f>
         <v>3.1911711790097856E-6</v>
       </c>
-      <c r="V29" s="91">
+      <c r="V29" s="77">
         <f>U29*1000000</f>
         <v>3.1911711790097854</v>
       </c>
-      <c r="W29" s="77" t="s">
+      <c r="W29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="X29" s="109"/>
+      <c r="X29" s="95"/>
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="78" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="M30" s="100">
+      <c r="M30" s="86">
         <f>(M19*M28)/(M12*M3)</f>
         <v>0.67940552016985134</v>
       </c>
-      <c r="N30" s="97" t="s">
+      <c r="N30" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="O30" s="226"/>
-      <c r="P30" s="226"/>
-      <c r="Q30" s="226"/>
-      <c r="R30" s="226"/>
-      <c r="S30" s="226"/>
-      <c r="T30" s="110" t="s">
+      <c r="O30" s="223"/>
+      <c r="P30" s="223"/>
+      <c r="Q30" s="223"/>
+      <c r="R30" s="223"/>
+      <c r="S30" s="223"/>
+      <c r="T30" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="U30" s="111">
+      <c r="U30" s="97">
         <f>(2*U28*M12*M3)/M39</f>
         <v>3.1911711790097856E-6</v>
       </c>
-      <c r="V30" s="112">
+      <c r="V30" s="98">
         <f>U30*1000000</f>
         <v>3.1911711790097854</v>
       </c>
-      <c r="W30" s="113" t="s">
+      <c r="W30" s="99" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="78" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="114">
+      <c r="M31" s="100">
         <f>J9/1000</f>
         <v>0.26</v>
       </c>
-      <c r="N31" s="115" t="s">
+      <c r="N31" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="O31" s="116" t="s">
+      <c r="O31" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="P31" s="117">
+      <c r="P31" s="103">
         <f>V29</f>
         <v>3.1911711790097854</v>
       </c>
-      <c r="Q31" s="118" t="s">
+      <c r="Q31" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="R31" s="119">
+      <c r="R31" s="105">
         <f>P31/1000000</f>
         <v>3.1911711790097856E-6</v>
       </c>
-      <c r="S31" s="120" t="s">
+      <c r="S31" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="T31" s="121" t="s">
+      <c r="T31" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="U31" s="122">
+      <c r="U31" s="108">
         <f>U27</f>
         <v>1734.4794518609449</v>
       </c>
-      <c r="V31" s="123" t="s">
+      <c r="V31" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="W31" s="109"/>
+      <c r="W31" s="95"/>
     </row>
     <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="78" t="s">
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="114">
+      <c r="M32" s="100">
         <f>J10/1000</f>
         <v>0.13800000000000001</v>
       </c>
-      <c r="N32" s="115" t="s">
+      <c r="N32" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="O32" s="124" t="s">
+      <c r="O32" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="P32" s="125">
+      <c r="P32" s="111">
         <f>V30</f>
         <v>3.1911711790097854</v>
       </c>
-      <c r="Q32" s="126" t="s">
+      <c r="Q32" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="127">
+      <c r="R32" s="113">
         <f>P32/1000000</f>
         <v>3.1911711790097856E-6</v>
       </c>
-      <c r="S32" s="128" t="s">
+      <c r="S32" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="T32" s="129" t="s">
+      <c r="T32" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="U32" s="130">
+      <c r="U32" s="116">
         <f>U28</f>
         <v>1734.4794518609449</v>
       </c>
-      <c r="V32" s="131" t="s">
+      <c r="V32" s="117" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="78" t="s">
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="M33" s="114">
+      <c r="M33" s="100">
         <f>J9/J10</f>
         <v>1.8840579710144927</v>
       </c>
-      <c r="N33" s="132" t="s">
+      <c r="N33" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="O33" s="227" t="s">
+      <c r="O33" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="227"/>
-      <c r="Q33" s="227"/>
-      <c r="R33" s="227"/>
-      <c r="S33" s="227"/>
-      <c r="T33" s="227"/>
-      <c r="U33" s="227"/>
-      <c r="V33" s="227"/>
+      <c r="P33" s="224"/>
+      <c r="Q33" s="224"/>
+      <c r="R33" s="224"/>
+      <c r="S33" s="224"/>
+      <c r="T33" s="224"/>
+      <c r="U33" s="224"/>
+      <c r="V33" s="224"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="78" t="s">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="M34" s="100">
+      <c r="M34" s="86">
         <f>SQRT(1+((1+2*J20*M29)/(2*J21*M29))*M36^2)</f>
         <v>1.2137022847283612</v>
       </c>
-      <c r="N34" s="97" t="s">
+      <c r="N34" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="O34" s="133" t="s">
+      <c r="O34" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="P34" s="134" t="s">
+      <c r="P34" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="Q34" s="134" t="s">
+      <c r="Q34" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="R34" s="134" t="s">
+      <c r="R34" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="S34" s="134" t="s">
+      <c r="S34" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="T34" s="134" t="s">
+      <c r="T34" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="U34" s="134" t="s">
+      <c r="U34" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="V34" s="135" t="s">
+      <c r="V34" s="121" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="78" t="s">
+      <c r="A35" s="122"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="M35" s="100">
+      <c r="M35" s="86">
         <f>SQRT(1+((1+2*J20*M30)/(2*J21*M30))*M36^2)</f>
         <v>1.2137022847283612</v>
       </c>
-      <c r="N35" s="97" t="s">
+      <c r="N35" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="O35" s="138">
+      <c r="O35" s="124">
         <v>1</v>
       </c>
-      <c r="P35" s="139">
+      <c r="P35" s="125">
         <v>10</v>
       </c>
-      <c r="Q35" s="140">
+      <c r="Q35" s="126">
         <f t="shared" ref="Q35:Q53" si="0">$R$31/P35</f>
         <v>3.1911711790097856E-7</v>
       </c>
-      <c r="R35" s="141">
+      <c r="R35" s="127">
         <f t="shared" ref="R35:R63" si="1">Q35*1000000</f>
         <v>0.31911711790097858</v>
       </c>
-      <c r="S35" s="142">
+      <c r="S35" s="128">
         <f t="shared" ref="S35:S63" si="2">($M$39/($M$11*$M$2))*(Q35-(Q35*Q35/(2*$R$31)))</f>
         <v>329.55109585357957</v>
       </c>
-      <c r="T35" s="140">
+      <c r="T35" s="126">
         <f t="shared" ref="T35:T63" si="3">($M$39/($M$11*$M$2))*(( Q35*Q35/2)-(Q35*Q35*Q35/(6*$R$31)))</f>
         <v>5.3505201427845598E-5</v>
       </c>
-      <c r="U35" s="141">
+      <c r="U35" s="127">
         <f t="shared" ref="U35:U63" si="4">T35*1000</f>
         <v>5.3505201427845601E-2</v>
       </c>
-      <c r="V35" s="143">
+      <c r="V35" s="129">
         <f t="shared" ref="V35:V63" si="5">U35*$M$7</f>
         <v>0.1324300206434515</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="78" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="M36" s="114">
+      <c r="M36" s="100">
         <f>(   (M31+M32) *M18*M33             )/(M31*M32)</f>
         <v>0.20898970804452843</v>
       </c>
-      <c r="N36" s="97" t="s">
+      <c r="N36" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="O36" s="138">
+      <c r="O36" s="124">
         <v>2</v>
       </c>
-      <c r="P36" s="139">
+      <c r="P36" s="125">
         <v>9</v>
       </c>
-      <c r="Q36" s="140">
+      <c r="Q36" s="126">
         <f t="shared" si="0"/>
         <v>3.5457457544553171E-7</v>
       </c>
-      <c r="R36" s="141">
+      <c r="R36" s="127">
         <f t="shared" si="1"/>
         <v>0.35457457544553173</v>
       </c>
-      <c r="S36" s="142">
+      <c r="S36" s="128">
         <f t="shared" si="2"/>
         <v>364.02655162513656</v>
       </c>
-      <c r="T36" s="140">
+      <c r="T36" s="126">
         <f t="shared" si="3"/>
         <v>6.5802716859372106E-5</v>
       </c>
-      <c r="U36" s="141">
+      <c r="U36" s="127">
         <f t="shared" si="4"/>
         <v>6.5802716859372112E-2</v>
       </c>
-      <c r="V36" s="143">
+      <c r="V36" s="129">
         <f t="shared" si="5"/>
         <v>0.16286743941770679</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="78" t="s">
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="M37" s="71">
+      <c r="M37" s="57">
         <f>J22*1000000</f>
         <v>20000000000</v>
       </c>
-      <c r="N37" s="144" t="s">
+      <c r="N37" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="O37" s="138">
+      <c r="O37" s="124">
         <v>3</v>
       </c>
-      <c r="P37" s="139">
+      <c r="P37" s="125">
         <v>8</v>
       </c>
-      <c r="Q37" s="140">
+      <c r="Q37" s="126">
         <f t="shared" si="0"/>
         <v>3.9889639737622319E-7</v>
       </c>
-      <c r="R37" s="141">
+      <c r="R37" s="127">
         <f t="shared" si="1"/>
         <v>0.39889639737622318</v>
       </c>
-      <c r="S37" s="142">
+      <c r="S37" s="128">
         <f t="shared" si="2"/>
         <v>406.51862152990896</v>
       </c>
-      <c r="T37" s="140">
+      <c r="T37" s="126">
         <f t="shared" si="3"/>
         <v>8.2881171392810407E-5</v>
       </c>
-      <c r="U37" s="141">
+      <c r="U37" s="127">
         <f t="shared" si="4"/>
         <v>8.2881171392810413E-2</v>
       </c>
-      <c r="V37" s="143">
+      <c r="V37" s="129">
         <f t="shared" si="5"/>
         <v>0.2051380977100879</v>
       </c>
-      <c r="X37" s="145"/>
+      <c r="X37" s="131"/>
     </row>
     <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="78" t="s">
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="M38" s="114">
+      <c r="M38" s="100">
         <f>J23*M37</f>
         <v>16000000000</v>
       </c>
-      <c r="N38" s="97" t="s">
+      <c r="N38" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="O38" s="138">
+      <c r="O38" s="124">
         <v>4</v>
       </c>
-      <c r="P38" s="139">
+      <c r="P38" s="125">
         <v>7</v>
       </c>
-      <c r="Q38" s="140">
+      <c r="Q38" s="126">
         <f t="shared" si="0"/>
         <v>4.5588159700139792E-7</v>
       </c>
-      <c r="R38" s="141">
+      <c r="R38" s="127">
         <f t="shared" si="1"/>
         <v>0.45588159700139791</v>
       </c>
-      <c r="S38" s="142">
+      <c r="S38" s="128">
         <f t="shared" si="2"/>
         <v>460.16801784065882</v>
       </c>
-      <c r="T38" s="140">
+      <c r="T38" s="126">
         <f t="shared" si="3"/>
         <v>1.0758057992931657E-4</v>
       </c>
-      <c r="U38" s="141">
+      <c r="U38" s="127">
         <f t="shared" si="4"/>
         <v>0.10758057992931658</v>
       </c>
-      <c r="V38" s="143">
+      <c r="V38" s="129">
         <f t="shared" si="5"/>
         <v>0.26627127906595255</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="78" t="s">
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="M39" s="114">
+      <c r="M39" s="100">
         <f>(M19*J13^2)/(2*(J19+1))</f>
         <v>12800000000</v>
       </c>
-      <c r="N39" s="97" t="s">
+      <c r="N39" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="O39" s="138">
+      <c r="O39" s="124">
         <v>5</v>
       </c>
-      <c r="P39" s="139">
+      <c r="P39" s="125">
         <v>6</v>
       </c>
-      <c r="Q39" s="140">
+      <c r="Q39" s="126">
         <f t="shared" si="0"/>
         <v>5.3186186316829759E-7</v>
       </c>
-      <c r="R39" s="141">
+      <c r="R39" s="127">
         <f t="shared" si="1"/>
         <v>0.53186186316829764</v>
       </c>
-      <c r="S39" s="142">
+      <c r="S39" s="128">
         <f t="shared" si="2"/>
         <v>529.97983251306653</v>
       </c>
-      <c r="T39" s="140">
+      <c r="T39" s="126">
         <f t="shared" si="3"/>
         <v>1.4520887999255671E-4</v>
       </c>
-      <c r="U39" s="141">
+      <c r="U39" s="127">
         <f t="shared" si="4"/>
         <v>0.14520887999255672</v>
       </c>
-      <c r="V39" s="143">
+      <c r="V39" s="129">
         <f t="shared" si="5"/>
         <v>0.3594045898688818</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="146" t="s">
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="M40" s="147">
+      <c r="M40" s="133">
         <f>U31*M6</f>
         <v>1608.1813438433196</v>
       </c>
-      <c r="N40" s="148" t="s">
+      <c r="N40" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="O40" s="138">
+      <c r="O40" s="124">
         <v>6</v>
       </c>
-      <c r="P40" s="139">
+      <c r="P40" s="125">
         <v>5</v>
       </c>
-      <c r="Q40" s="140">
+      <c r="Q40" s="126">
         <f t="shared" si="0"/>
         <v>6.3823423580195711E-7</v>
       </c>
-      <c r="R40" s="141">
+      <c r="R40" s="127">
         <f t="shared" si="1"/>
         <v>0.63823423580195715</v>
       </c>
-      <c r="S40" s="142">
+      <c r="S40" s="128">
         <f t="shared" si="2"/>
         <v>624.41260266994016</v>
       </c>
-      <c r="T40" s="140">
+      <c r="T40" s="126">
         <f t="shared" si="3"/>
         <v>2.0664077792823129E-4</v>
       </c>
-      <c r="U40" s="141">
+      <c r="U40" s="127">
         <f t="shared" si="4"/>
         <v>0.2066407779282313</v>
       </c>
-      <c r="V40" s="143">
+      <c r="V40" s="129">
         <f t="shared" si="5"/>
         <v>0.51145387282988164</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="146" t="s">
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="M41" s="147">
+      <c r="M41" s="133">
         <f>U32*M6</f>
         <v>1608.1813438433196</v>
       </c>
-      <c r="N41" s="148" t="s">
+      <c r="N41" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="O41" s="138">
+      <c r="O41" s="124">
         <v>7</v>
       </c>
-      <c r="P41" s="139">
+      <c r="P41" s="125">
         <v>4</v>
       </c>
-      <c r="Q41" s="140">
+      <c r="Q41" s="126">
         <f t="shared" si="0"/>
         <v>7.9779279475244639E-7</v>
       </c>
-      <c r="R41" s="141">
+      <c r="R41" s="127">
         <f t="shared" si="1"/>
         <v>0.79779279475244635</v>
       </c>
-      <c r="S41" s="142">
+      <c r="S41" s="128">
         <f t="shared" si="2"/>
         <v>758.83476018916338</v>
       </c>
-      <c r="T41" s="140">
+      <c r="T41" s="126">
         <f t="shared" si="3"/>
         <v>3.1711056880727456E-4</v>
       </c>
-      <c r="U41" s="141">
+      <c r="U41" s="127">
         <f t="shared" si="4"/>
         <v>0.31711056880727456</v>
       </c>
-      <c r="V41" s="143">
+      <c r="V41" s="129">
         <f t="shared" si="5"/>
         <v>0.78487619993424917</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="146" t="s">
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="147">
+      <c r="M42" s="133">
         <f>M17+(U31/M5)</f>
         <v>13630.13594086748</v>
       </c>
-      <c r="N42" s="148" t="s">
+      <c r="N42" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="138">
+      <c r="O42" s="124">
         <v>8</v>
       </c>
-      <c r="P42" s="139">
+      <c r="P42" s="125">
         <v>3</v>
       </c>
-      <c r="Q42" s="140">
+      <c r="Q42" s="126">
         <f t="shared" si="0"/>
         <v>1.0637237263365952E-6</v>
       </c>
-      <c r="R42" s="141">
+      <c r="R42" s="127">
         <f t="shared" si="1"/>
         <v>1.0637237263365953</v>
       </c>
-      <c r="S42" s="142">
+      <c r="S42" s="128">
         <f t="shared" si="2"/>
         <v>963.59969547830269</v>
       </c>
-      <c r="T42" s="140">
+      <c r="T42" s="126">
         <f t="shared" si="3"/>
         <v>5.4666872467786063E-4</v>
       </c>
-      <c r="U42" s="141">
+      <c r="U42" s="127">
         <f t="shared" si="4"/>
         <v>0.54666872467786065</v>
       </c>
-      <c r="V42" s="143">
+      <c r="V42" s="129">
         <f t="shared" si="5"/>
         <v>1.3530525736240258</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="146" t="s">
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="M43" s="147">
+      <c r="M43" s="133">
         <f>M17-(U32/M5)</f>
         <v>4369.8640591325202</v>
       </c>
-      <c r="N43" s="148" t="s">
+      <c r="N43" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="O43" s="138">
+      <c r="O43" s="124">
         <v>9</v>
       </c>
-      <c r="P43" s="139">
+      <c r="P43" s="125">
         <v>2</v>
       </c>
-      <c r="Q43" s="140">
+      <c r="Q43" s="126">
         <f t="shared" si="0"/>
         <v>1.5955855895048928E-6</v>
       </c>
-      <c r="R43" s="141">
+      <c r="R43" s="127">
         <f t="shared" si="1"/>
         <v>1.5955855895048927</v>
       </c>
-      <c r="S43" s="142">
+      <c r="S43" s="128">
         <f t="shared" si="2"/>
         <v>1300.8595888957086</v>
       </c>
-      <c r="T43" s="140">
+      <c r="T43" s="126">
         <f t="shared" si="3"/>
         <v>1.1531293411173624E-3</v>
       </c>
-      <c r="U43" s="141">
+      <c r="U43" s="127">
         <f t="shared" si="4"/>
         <v>1.1531293411173624</v>
       </c>
-      <c r="V43" s="143">
+      <c r="V43" s="129">
         <f t="shared" si="5"/>
         <v>2.8540952724881796</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="99"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="146" t="s">
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="M44" s="149">
+      <c r="M44" s="135">
         <f>M2/(M42*M5)</f>
         <v>2.9377555449209834E-7</v>
       </c>
-      <c r="N44" s="148" t="s">
+      <c r="N44" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="O44" s="138">
+      <c r="O44" s="124">
         <v>10</v>
       </c>
-      <c r="P44" s="139">
+      <c r="P44" s="125">
         <v>1.9</v>
       </c>
-      <c r="Q44" s="140">
+      <c r="Q44" s="126">
         <f t="shared" si="0"/>
         <v>1.6795637784262029E-6</v>
       </c>
-      <c r="R44" s="141">
+      <c r="R44" s="127">
         <f t="shared" si="1"/>
         <v>1.679563778426203</v>
       </c>
-      <c r="S44" s="142">
+      <c r="S44" s="128">
         <f t="shared" si="2"/>
         <v>1345.3026219420071</v>
       </c>
-      <c r="T44" s="140">
+      <c r="T44" s="126">
         <f t="shared" si="3"/>
         <v>1.2642561080627734E-3</v>
       </c>
-      <c r="U44" s="141">
+      <c r="U44" s="127">
         <f t="shared" si="4"/>
         <v>1.2642561080627734</v>
       </c>
-      <c r="V44" s="143">
+      <c r="V44" s="129">
         <f t="shared" si="5"/>
         <v>3.1291436724174231</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="146" t="s">
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="M45" s="149">
+      <c r="M45" s="135">
         <f>M3/(M43*M5)</f>
         <v>9.1632158109419828E-7</v>
       </c>
-      <c r="N45" s="148" t="s">
+      <c r="N45" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="O45" s="138">
+      <c r="O45" s="124">
         <v>11</v>
       </c>
-      <c r="P45" s="139">
+      <c r="P45" s="125">
         <v>1.8</v>
       </c>
-      <c r="Q45" s="140">
+      <c r="Q45" s="126">
         <f t="shared" si="0"/>
         <v>1.7728728772276585E-6</v>
       </c>
-      <c r="R45" s="141">
+      <c r="R45" s="127">
         <f t="shared" si="1"/>
         <v>1.7728728772276585</v>
       </c>
-      <c r="S45" s="142">
+      <c r="S45" s="128">
         <f t="shared" si="2"/>
         <v>1391.8662268019928</v>
       </c>
-      <c r="T45" s="140">
+      <c r="T45" s="126">
         <f t="shared" si="3"/>
         <v>1.3919805489482559E-3</v>
       </c>
-      <c r="U45" s="141">
+      <c r="U45" s="127">
         <f t="shared" si="4"/>
         <v>1.391980548948256</v>
       </c>
-      <c r="V45" s="143">
+      <c r="V45" s="129">
         <f t="shared" si="5"/>
         <v>3.4452727569130279</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="146" t="s">
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="M46" s="150">
+      <c r="M46" s="136">
         <f>(M13*PI()*M16*M16*M42*M44)/4</f>
         <v>5.7060918816483917E-2</v>
       </c>
-      <c r="N46" s="148" t="s">
+      <c r="N46" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="O46" s="138">
+      <c r="O46" s="124">
         <v>12</v>
       </c>
-      <c r="P46" s="139">
+      <c r="P46" s="125">
         <v>1.7</v>
       </c>
-      <c r="Q46" s="140">
+      <c r="Q46" s="126">
         <f t="shared" si="0"/>
         <v>1.8771595170645797E-6</v>
       </c>
-      <c r="R46" s="141">
+      <c r="R46" s="127">
         <f t="shared" si="1"/>
         <v>1.8771595170645796</v>
       </c>
-      <c r="S46" s="142">
+      <c r="S46" s="128">
         <f t="shared" si="2"/>
         <v>1440.3981607149715</v>
       </c>
-      <c r="T46" s="140">
+      <c r="T46" s="126">
         <f t="shared" si="3"/>
         <v>1.5396964131345198E-3</v>
       </c>
-      <c r="U46" s="141">
+      <c r="U46" s="127">
         <f t="shared" si="4"/>
         <v>1.5396964131345197</v>
       </c>
-      <c r="V46" s="143">
+      <c r="V46" s="129">
         <f t="shared" si="5"/>
         <v>3.8108823504014762</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="146" t="s">
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="M47" s="150">
+      <c r="M47" s="136">
         <f>(M13*PI()*M16*M16*M43*M45)/4</f>
         <v>5.706091881648391E-2</v>
       </c>
-      <c r="N47" s="148" t="s">
+      <c r="N47" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="O47" s="138">
+      <c r="O47" s="124">
         <v>13</v>
       </c>
-      <c r="P47" s="139">
+      <c r="P47" s="125">
         <v>1.6</v>
       </c>
-      <c r="Q47" s="140">
+      <c r="Q47" s="126">
         <f t="shared" si="0"/>
         <v>1.9944819868811157E-6</v>
       </c>
-      <c r="R47" s="141">
+      <c r="R47" s="127">
         <f t="shared" si="1"/>
         <v>1.9944819868811157</v>
       </c>
-      <c r="S47" s="142">
+      <c r="S47" s="128">
         <f t="shared" si="2"/>
         <v>1490.5682789429995</v>
       </c>
-      <c r="T47" s="140">
+      <c r="T47" s="126">
         <f t="shared" si="3"/>
         <v>1.7116763657210837E-3</v>
       </c>
-      <c r="U47" s="141">
+      <c r="U47" s="127">
         <f t="shared" si="4"/>
         <v>1.7116763657210836</v>
       </c>
-      <c r="V47" s="143">
+      <c r="V47" s="129">
         <f t="shared" si="5"/>
         <v>4.2365476700996387</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="146" t="s">
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="M48" s="151">
+      <c r="M48" s="137">
         <f>(4/PI())*(M11/M13)*(J24*M2/(M16*M5))*(M40*M40/M42)</f>
         <v>22.600923847074114</v>
       </c>
-      <c r="N48" s="148" t="s">
+      <c r="N48" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="O48" s="138">
+      <c r="O48" s="124">
         <v>14</v>
       </c>
-      <c r="P48" s="139">
+      <c r="P48" s="125">
         <v>1.5</v>
       </c>
-      <c r="Q48" s="140">
+      <c r="Q48" s="126">
         <f t="shared" si="0"/>
         <v>2.1274474526731904E-6</v>
       </c>
-      <c r="R48" s="141">
+      <c r="R48" s="127">
         <f t="shared" si="1"/>
         <v>2.1274474526731906</v>
       </c>
-      <c r="S48" s="142">
+      <c r="S48" s="128">
         <f t="shared" si="2"/>
         <v>1541.7595127652842</v>
       </c>
-      <c r="T48" s="140">
+      <c r="T48" s="126">
         <f t="shared" si="3"/>
         <v>1.9133405363725121E-3</v>
       </c>
-      <c r="U48" s="141">
+      <c r="U48" s="127">
         <f t="shared" si="4"/>
         <v>1.913340536372512</v>
       </c>
-      <c r="V48" s="143">
+      <c r="V48" s="129">
         <f t="shared" si="5"/>
         <v>4.7356840076840898</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="146" t="s">
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="M49" s="151">
+      <c r="M49" s="137">
         <f>(4/PI())*(M12/M13)*(J24*M3/(M16*M5))*(M41*M41/M43)</f>
         <v>70.495022329359799</v>
       </c>
-      <c r="N49" s="148" t="s">
+      <c r="N49" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="O49" s="138">
+      <c r="O49" s="124">
         <v>15</v>
       </c>
-      <c r="P49" s="139">
+      <c r="P49" s="125">
         <v>1.4</v>
       </c>
-      <c r="Q49" s="140">
+      <c r="Q49" s="126">
         <f t="shared" si="0"/>
         <v>2.2794079850069899E-6</v>
       </c>
-      <c r="R49" s="141">
+      <c r="R49" s="127">
         <f t="shared" si="1"/>
         <v>2.2794079850069897</v>
       </c>
-      <c r="S49" s="142">
+      <c r="S49" s="128">
         <f t="shared" si="2"/>
         <v>1592.8892925253576</v>
       </c>
-      <c r="T49" s="140">
+      <c r="T49" s="126">
         <f t="shared" si="3"/>
         <v>2.1516115985863319E-3</v>
       </c>
-      <c r="U49" s="141">
+      <c r="U49" s="127">
         <f t="shared" si="4"/>
         <v>2.151611598586332</v>
       </c>
-      <c r="V49" s="143">
+      <c r="V49" s="129">
         <f t="shared" si="5"/>
         <v>5.3254255813190516</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="152" t="s">
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="M50" s="153">
+      <c r="M50" s="139">
         <f>U31*M7</f>
         <v>4292.9872888217287</v>
       </c>
-      <c r="N50" s="154" t="s">
+      <c r="N50" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="O50" s="138">
+      <c r="O50" s="124">
         <v>16</v>
       </c>
-      <c r="P50" s="139">
+      <c r="P50" s="125">
         <v>1.3</v>
       </c>
-      <c r="Q50" s="140">
+      <c r="Q50" s="126">
         <f t="shared" si="0"/>
         <v>2.454747060776758E-6</v>
       </c>
-      <c r="R50" s="141">
+      <c r="R50" s="127">
         <f t="shared" si="1"/>
         <v>2.4547470607767581</v>
       </c>
-      <c r="S50" s="142">
+      <c r="S50" s="128">
         <f t="shared" si="2"/>
         <v>1642.1107236553323</v>
       </c>
-      <c r="T50" s="140">
+      <c r="T50" s="126">
         <f t="shared" si="3"/>
         <v>2.4353755770525989E-3</v>
       </c>
-      <c r="U50" s="141">
+      <c r="U50" s="127">
         <f t="shared" si="4"/>
         <v>2.4353755770525991</v>
       </c>
-      <c r="V50" s="143">
+      <c r="V50" s="129">
         <f t="shared" si="5"/>
         <v>6.0277660738940151</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="152" t="s">
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="138" t="s">
         <v>139</v>
       </c>
-      <c r="M51" s="153">
+      <c r="M51" s="139">
         <f>U32*M7</f>
         <v>4292.9872888217287</v>
       </c>
-      <c r="N51" s="154" t="s">
+      <c r="N51" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="138">
+      <c r="O51" s="124">
         <v>17</v>
       </c>
-      <c r="P51" s="139">
+      <c r="P51" s="125">
         <v>1.2</v>
       </c>
-      <c r="Q51" s="140">
+      <c r="Q51" s="126">
         <f t="shared" si="0"/>
         <v>2.659309315841488E-6</v>
       </c>
-      <c r="R51" s="141">
+      <c r="R51" s="127">
         <f t="shared" si="1"/>
         <v>2.659309315841488</v>
       </c>
-      <c r="S51" s="142">
+      <c r="S51" s="128">
         <f t="shared" si="2"/>
         <v>1686.2994670870298</v>
       </c>
-      <c r="T51" s="140">
+      <c r="T51" s="126">
         <f t="shared" si="3"/>
         <v>2.7760521175047605E-3</v>
       </c>
-      <c r="U51" s="141">
+      <c r="U51" s="127">
         <f t="shared" si="4"/>
         <v>2.7760521175047606</v>
       </c>
-      <c r="V51" s="143">
+      <c r="V51" s="129">
         <f t="shared" si="5"/>
         <v>6.870970100434505</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K52" s="99"/>
-      <c r="L52" s="155" t="s">
+      <c r="K52" s="85"/>
+      <c r="L52" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="M52" s="156">
+      <c r="M52" s="142">
         <f>M17+(U31/M5)</f>
         <v>13630.13594086748</v>
       </c>
-      <c r="N52" s="157" t="s">
+      <c r="N52" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="O52" s="138">
+      <c r="O52" s="124">
         <v>18</v>
       </c>
-      <c r="P52" s="139">
+      <c r="P52" s="125">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q52" s="140">
+      <c r="Q52" s="126">
         <f t="shared" si="0"/>
         <v>2.9010647081907141E-6</v>
       </c>
-      <c r="R52" s="141">
+      <c r="R52" s="127">
         <f t="shared" si="1"/>
         <v>2.9010647081907139</v>
       </c>
-      <c r="S52" s="142">
+      <c r="S52" s="128">
         <f t="shared" si="2"/>
         <v>1720.1449109364742</v>
       </c>
-      <c r="T52" s="140">
+      <c r="T52" s="126">
         <f t="shared" si="3"/>
         <v>3.1882163601141189E-3</v>
       </c>
-      <c r="U52" s="141">
+      <c r="U52" s="127">
         <f t="shared" si="4"/>
         <v>3.1882163601141187</v>
       </c>
-      <c r="V52" s="143">
+      <c r="V52" s="129">
         <f t="shared" si="5"/>
         <v>7.8911123987652116</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K53" s="99"/>
-      <c r="L53" s="152" t="s">
+      <c r="K53" s="85"/>
+      <c r="L53" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="M53" s="153">
+      <c r="M53" s="139">
         <f>M17-(U32/M5)</f>
         <v>4369.8640591325202</v>
       </c>
-      <c r="N53" s="154" t="s">
+      <c r="N53" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="O53" s="138">
+      <c r="O53" s="124">
         <v>19</v>
       </c>
-      <c r="P53" s="139">
+      <c r="P53" s="125">
         <v>1</v>
       </c>
-      <c r="Q53" s="140">
+      <c r="Q53" s="126">
         <f t="shared" si="0"/>
         <v>3.1911711790097856E-6</v>
       </c>
-      <c r="R53" s="141">
+      <c r="R53" s="127">
         <f t="shared" si="1"/>
         <v>3.1911711790097854</v>
       </c>
-      <c r="S53" s="158">
+      <c r="S53" s="144">
         <f t="shared" si="2"/>
         <v>1734.4794518609449</v>
       </c>
-      <c r="T53" s="140">
+      <c r="T53" s="126">
         <f t="shared" si="3"/>
         <v>3.6900138915755588E-3</v>
       </c>
-      <c r="U53" s="141">
+      <c r="U53" s="127">
         <f t="shared" si="4"/>
         <v>3.6900138915755587</v>
       </c>
-      <c r="V53" s="143">
+      <c r="V53" s="129">
         <f t="shared" si="5"/>
         <v>9.133104871962173</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K54" s="99"/>
-      <c r="L54" s="152" t="s">
+      <c r="K54" s="85"/>
+      <c r="L54" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="M54" s="153">
+      <c r="M54" s="139">
         <f>PI()*M16*M16*M13*M52/4</f>
         <v>194233.039284481</v>
       </c>
-      <c r="N54" s="154" t="s">
+      <c r="N54" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="O54" s="159">
+      <c r="O54" s="145">
         <v>20</v>
       </c>
-      <c r="P54" s="160">
+      <c r="P54" s="146">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q54" s="161">
+      <c r="Q54" s="147">
         <f t="shared" ref="Q54:Q63" si="6">$R$31*P54</f>
         <v>3.5102882969107645E-6</v>
       </c>
-      <c r="R54" s="162">
+      <c r="R54" s="148">
         <f t="shared" si="1"/>
         <v>3.5102882969107645</v>
       </c>
-      <c r="S54" s="163">
+      <c r="S54" s="149">
         <f t="shared" si="2"/>
         <v>1717.1346573423352</v>
       </c>
-      <c r="T54" s="161">
+      <c r="T54" s="147">
         <f t="shared" si="3"/>
         <v>4.2416709683661055E-3</v>
       </c>
-      <c r="U54" s="162">
+      <c r="U54" s="148">
         <f t="shared" si="4"/>
         <v>4.2416709683661056</v>
       </c>
-      <c r="V54" s="143">
+      <c r="V54" s="129">
         <f t="shared" si="5"/>
         <v>10.49850405032052</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K55" s="99"/>
-      <c r="L55" s="152" t="s">
+      <c r="K55" s="85"/>
+      <c r="L55" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="M55" s="153">
+      <c r="M55" s="139">
         <f>PI()*M16*M16*M13*M53/4</f>
         <v>62271.717695818443</v>
       </c>
-      <c r="N55" s="154" t="s">
+      <c r="N55" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="O55" s="159">
+      <c r="O55" s="145">
         <v>21</v>
       </c>
-      <c r="P55" s="160">
+      <c r="P55" s="146">
         <v>1.2</v>
       </c>
-      <c r="Q55" s="161">
+      <c r="Q55" s="147">
         <f t="shared" si="6"/>
         <v>3.8294054148117427E-6</v>
       </c>
-      <c r="R55" s="162">
+      <c r="R55" s="148">
         <f t="shared" si="1"/>
         <v>3.8294054148117427</v>
       </c>
-      <c r="S55" s="163">
+      <c r="S55" s="149">
         <f t="shared" si="2"/>
         <v>1665.1002737865072</v>
       </c>
-      <c r="T55" s="161">
+      <c r="T55" s="147">
         <f t="shared" si="3"/>
         <v>4.7822580034819233E-3</v>
       </c>
-      <c r="U55" s="162">
+      <c r="U55" s="148">
         <f t="shared" si="4"/>
         <v>4.7822580034819229</v>
       </c>
-      <c r="V55" s="143">
+      <c r="V55" s="129">
         <f t="shared" si="5"/>
         <v>11.836503914062972</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K56" s="99"/>
-      <c r="L56" s="152" t="s">
+      <c r="K56" s="85"/>
+      <c r="L56" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="M56" s="153">
+      <c r="M56" s="139">
         <f>M2*$J$24*$M$16*M11*M50</f>
         <v>2729.6959675972957</v>
       </c>
-      <c r="N56" s="154" t="s">
+      <c r="N56" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="O56" s="159">
+      <c r="O56" s="145">
         <v>22</v>
       </c>
-      <c r="P56" s="160">
+      <c r="P56" s="146">
         <v>1.3</v>
       </c>
-      <c r="Q56" s="161">
+      <c r="Q56" s="147">
         <f t="shared" si="6"/>
         <v>4.1485225327127216E-6</v>
       </c>
-      <c r="R56" s="162">
+      <c r="R56" s="148">
         <f t="shared" si="1"/>
         <v>4.1485225327127218</v>
       </c>
-      <c r="S56" s="163">
+      <c r="S56" s="149">
         <f t="shared" si="2"/>
         <v>1578.3763011934598</v>
       </c>
-      <c r="T56" s="161">
+      <c r="T56" s="147">
         <f t="shared" si="3"/>
         <v>5.30070495524829E-3</v>
       </c>
-      <c r="U56" s="162">
+      <c r="U56" s="148">
         <f t="shared" si="4"/>
         <v>5.3007049552482899</v>
       </c>
-      <c r="V56" s="143">
+      <c r="V56" s="129">
         <f t="shared" si="5"/>
         <v>13.11970514857366</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K57" s="99"/>
-      <c r="L57" s="164" t="s">
+      <c r="K57" s="85"/>
+      <c r="L57" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="M57" s="165">
+      <c r="M57" s="151">
         <f>M3*$J$24*$M$16*M12*M51</f>
         <v>2729.6959675972957</v>
       </c>
-      <c r="N57" s="166" t="s">
+      <c r="N57" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="O57" s="159">
+      <c r="O57" s="145">
         <v>23</v>
       </c>
-      <c r="P57" s="160">
+      <c r="P57" s="146">
         <v>1.4</v>
       </c>
-      <c r="Q57" s="161">
+      <c r="Q57" s="147">
         <f t="shared" si="6"/>
         <v>4.4676396506136998E-6</v>
       </c>
-      <c r="R57" s="162">
+      <c r="R57" s="148">
         <f t="shared" si="1"/>
         <v>4.4676396506136999</v>
       </c>
-      <c r="S57" s="163">
+      <c r="S57" s="149">
         <f t="shared" si="2"/>
         <v>1456.9627395631935</v>
       </c>
-      <c r="T57" s="161">
+      <c r="T57" s="147">
         <f t="shared" si="3"/>
         <v>5.785941781990476E-3</v>
       </c>
-      <c r="U57" s="162">
+      <c r="U57" s="148">
         <f t="shared" si="4"/>
         <v>5.7859417819904762</v>
       </c>
-      <c r="V57" s="143">
+      <c r="V57" s="129">
         <f t="shared" si="5"/>
         <v>14.320708439236686</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K58" s="99"/>
-      <c r="O58" s="159">
+      <c r="K58" s="85"/>
+      <c r="O58" s="145">
         <v>24</v>
       </c>
-      <c r="P58" s="160">
+      <c r="P58" s="146">
         <v>1.5</v>
       </c>
-      <c r="Q58" s="161">
+      <c r="Q58" s="147">
         <f t="shared" si="6"/>
         <v>4.7867567685146779E-6</v>
       </c>
-      <c r="R58" s="162">
+      <c r="R58" s="148">
         <f t="shared" si="1"/>
         <v>4.7867567685146781</v>
       </c>
-      <c r="S58" s="163">
+      <c r="S58" s="149">
         <f t="shared" si="2"/>
         <v>1300.8595888957091</v>
       </c>
-      <c r="T58" s="161">
+      <c r="T58" s="147">
         <f t="shared" si="3"/>
         <v>6.226898442033754E-3</v>
       </c>
-      <c r="U58" s="162">
+      <c r="U58" s="148">
         <f t="shared" si="4"/>
         <v>6.2268984420337539</v>
       </c>
-      <c r="V58" s="143">
+      <c r="V58" s="129">
         <f t="shared" si="5"/>
         <v>15.412114471436162</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K59" s="99"/>
-      <c r="O59" s="159">
+      <c r="K59" s="85"/>
+      <c r="O59" s="145">
         <v>25</v>
       </c>
-      <c r="P59" s="160">
+      <c r="P59" s="146">
         <v>1.6</v>
       </c>
-      <c r="Q59" s="161">
+      <c r="Q59" s="147">
         <f t="shared" si="6"/>
         <v>5.1058738864156569E-6</v>
       </c>
-      <c r="R59" s="162">
+      <c r="R59" s="148">
         <f t="shared" si="1"/>
         <v>5.1058738864156572</v>
       </c>
-      <c r="S59" s="163">
+      <c r="S59" s="149">
         <f t="shared" si="2"/>
         <v>1110.0668491910042</v>
       </c>
-      <c r="T59" s="161">
+      <c r="T59" s="147">
         <f t="shared" si="3"/>
         <v>6.6125048937034003E-3</v>
       </c>
-      <c r="U59" s="162">
+      <c r="U59" s="148">
         <f t="shared" si="4"/>
         <v>6.6125048937034006</v>
       </c>
-      <c r="V59" s="143">
+      <c r="V59" s="129">
         <f t="shared" si="5"/>
         <v>16.366523930556212</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K60" s="99"/>
-      <c r="O60" s="159">
+      <c r="K60" s="85"/>
+      <c r="O60" s="145">
         <v>26</v>
       </c>
-      <c r="P60" s="160">
+      <c r="P60" s="146">
         <v>1.7</v>
       </c>
-      <c r="Q60" s="161">
+      <c r="Q60" s="147">
         <f t="shared" si="6"/>
         <v>5.424991004316635E-6</v>
       </c>
-      <c r="R60" s="162">
+      <c r="R60" s="148">
         <f t="shared" si="1"/>
         <v>5.4249910043166354</v>
       </c>
-      <c r="S60" s="163">
+      <c r="S60" s="149">
         <f t="shared" si="2"/>
         <v>884.58452044908279</v>
       </c>
-      <c r="T60" s="161">
+      <c r="T60" s="147">
         <f t="shared" si="3"/>
         <v>6.931691095324685E-3</v>
       </c>
-      <c r="U60" s="162">
+      <c r="U60" s="148">
         <f t="shared" si="4"/>
         <v>6.9316910953246849</v>
       </c>
-      <c r="V60" s="143">
+      <c r="V60" s="129">
         <f t="shared" si="5"/>
         <v>17.156537501980935</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K61" s="99"/>
-      <c r="O61" s="159">
+      <c r="K61" s="85"/>
+      <c r="O61" s="145">
         <v>27</v>
       </c>
-      <c r="P61" s="160">
+      <c r="P61" s="146">
         <v>1.8</v>
       </c>
-      <c r="Q61" s="161">
+      <c r="Q61" s="147">
         <f t="shared" si="6"/>
         <v>5.744108122217614E-6</v>
       </c>
-      <c r="R61" s="162">
+      <c r="R61" s="148">
         <f t="shared" si="1"/>
         <v>5.7441081222176136</v>
       </c>
-      <c r="S61" s="163">
+      <c r="S61" s="149">
         <f t="shared" si="2"/>
         <v>624.41260266993936</v>
       </c>
-      <c r="T61" s="161">
+      <c r="T61" s="147">
         <f t="shared" si="3"/>
         <v>7.1733870052228862E-3</v>
       </c>
-      <c r="U61" s="162">
+      <c r="U61" s="148">
         <f t="shared" si="4"/>
         <v>7.1733870052228861</v>
       </c>
-      <c r="V61" s="143">
+      <c r="V61" s="129">
         <f t="shared" si="5"/>
         <v>17.754755871094464</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K62" s="167"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="159">
+      <c r="K62" s="153"/>
+      <c r="L62" s="85"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="145">
         <v>28</v>
       </c>
-      <c r="P62" s="160">
+      <c r="P62" s="146">
         <v>1.9</v>
       </c>
-      <c r="Q62" s="161">
+      <c r="Q62" s="147">
         <f t="shared" si="6"/>
         <v>6.0632252401185921E-6</v>
       </c>
-      <c r="R62" s="162">
+      <c r="R62" s="148">
         <f t="shared" si="1"/>
         <v>6.0632252401185918</v>
       </c>
-      <c r="S62" s="163">
+      <c r="S62" s="149">
         <f t="shared" si="2"/>
         <v>329.55109585357934</v>
       </c>
-      <c r="T62" s="161">
+      <c r="T62" s="147">
         <f t="shared" si="3"/>
         <v>7.3265225817232722E-3</v>
       </c>
-      <c r="U62" s="162">
+      <c r="U62" s="148">
         <f t="shared" si="4"/>
         <v>7.326522581723272</v>
       </c>
-      <c r="V62" s="143">
+      <c r="V62" s="129">
         <f t="shared" si="5"/>
         <v>18.133779723280895</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="168">
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
+      <c r="M63" s="85"/>
+      <c r="N63" s="85"/>
+      <c r="O63" s="154">
         <v>29</v>
       </c>
-      <c r="P63" s="169">
+      <c r="P63" s="155">
         <v>2</v>
       </c>
-      <c r="Q63" s="170">
+      <c r="Q63" s="156">
         <f t="shared" si="6"/>
         <v>6.3823423580195711E-6</v>
       </c>
-      <c r="R63" s="171">
+      <c r="R63" s="157">
         <f t="shared" si="1"/>
         <v>6.3823423580195708</v>
       </c>
-      <c r="S63" s="172">
+      <c r="S63" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T63" s="170">
+      <c r="T63" s="156">
         <f t="shared" si="3"/>
         <v>7.3800277831511177E-3</v>
       </c>
-      <c r="U63" s="171">
+      <c r="U63" s="157">
         <f t="shared" si="4"/>
         <v>7.3800277831511174</v>
       </c>
-      <c r="V63" s="173">
+      <c r="V63" s="159">
         <f t="shared" si="5"/>
         <v>18.266209743924346</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K64" s="99"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="99"/>
-      <c r="N64" s="99"/>
-      <c r="O64" s="228" t="s">
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="85"/>
+      <c r="O64" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="P64" s="228"/>
-      <c r="Q64" s="228"/>
-      <c r="R64" s="228"/>
-      <c r="S64" s="228"/>
-      <c r="T64" s="228"/>
-      <c r="U64" s="228"/>
-      <c r="V64" s="228"/>
+      <c r="P64" s="225"/>
+      <c r="Q64" s="225"/>
+      <c r="R64" s="225"/>
+      <c r="S64" s="225"/>
+      <c r="T64" s="225"/>
+      <c r="U64" s="225"/>
+      <c r="V64" s="225"/>
     </row>
     <row r="65" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K65" s="99"/>
-      <c r="L65" s="99"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="99"/>
-      <c r="O65" s="228"/>
-      <c r="P65" s="228"/>
-      <c r="Q65" s="228"/>
-      <c r="R65" s="228"/>
-      <c r="S65" s="228"/>
-      <c r="T65" s="228"/>
-      <c r="U65" s="228"/>
-      <c r="V65" s="228"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="85"/>
+      <c r="M65" s="85"/>
+      <c r="N65" s="85"/>
+      <c r="O65" s="225"/>
+      <c r="P65" s="225"/>
+      <c r="Q65" s="225"/>
+      <c r="R65" s="225"/>
+      <c r="S65" s="225"/>
+      <c r="T65" s="225"/>
+      <c r="U65" s="225"/>
+      <c r="V65" s="225"/>
     </row>
     <row r="66" spans="11:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="K66" s="99"/>
-      <c r="L66" s="99"/>
-      <c r="M66" s="99"/>
-      <c r="N66" s="99"/>
-      <c r="O66" s="229" t="s">
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="85"/>
+      <c r="N66" s="85"/>
+      <c r="O66" s="227" t="s">
         <v>144</v>
       </c>
-      <c r="P66" s="229"/>
-      <c r="Q66" s="229"/>
-      <c r="R66" s="229"/>
-      <c r="S66" s="229"/>
-      <c r="T66" s="229"/>
-      <c r="U66" s="229"/>
-      <c r="V66" s="229"/>
+      <c r="P66" s="227"/>
+      <c r="Q66" s="227"/>
+      <c r="R66" s="227"/>
+      <c r="S66" s="227"/>
+      <c r="T66" s="227"/>
+      <c r="U66" s="227"/>
+      <c r="V66" s="227"/>
     </row>
     <row r="67" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K67" s="99"/>
-      <c r="L67" s="99"/>
-      <c r="O67" s="230" t="s">
+      <c r="K67" s="85"/>
+      <c r="L67" s="85"/>
+      <c r="O67" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="P67" s="230"/>
-      <c r="Q67" s="230"/>
-      <c r="R67" s="230"/>
-      <c r="S67" s="230"/>
-      <c r="T67" s="174" t="s">
+      <c r="P67" s="228"/>
+      <c r="Q67" s="228"/>
+      <c r="R67" s="228"/>
+      <c r="S67" s="228"/>
+      <c r="T67" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="U67" s="175">
+      <c r="U67" s="161">
         <f>M48/M40</f>
         <v>1.4053715977739918E-2</v>
       </c>
-      <c r="V67" s="176" t="s">
+      <c r="V67" s="162" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="11:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K68" s="99"/>
-      <c r="L68" s="99"/>
-      <c r="O68" s="230"/>
-      <c r="P68" s="230"/>
-      <c r="Q68" s="230"/>
-      <c r="R68" s="230"/>
-      <c r="S68" s="230"/>
-      <c r="T68" s="177" t="s">
+      <c r="K68" s="85"/>
+      <c r="L68" s="85"/>
+      <c r="O68" s="228"/>
+      <c r="P68" s="228"/>
+      <c r="Q68" s="228"/>
+      <c r="R68" s="228"/>
+      <c r="S68" s="228"/>
+      <c r="T68" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="U68" s="178">
+      <c r="U68" s="164">
         <f>M49/M41</f>
         <v>4.3835244451279946E-2</v>
       </c>
-      <c r="V68" s="179" t="s">
+      <c r="V68" s="165" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="11:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K69" s="99"/>
-      <c r="L69" s="99"/>
-      <c r="O69" s="231" t="s">
+      <c r="K69" s="85"/>
+      <c r="L69" s="85"/>
+      <c r="O69" s="229" t="s">
         <v>148</v>
       </c>
-      <c r="P69" s="231"/>
-      <c r="Q69" s="231"/>
-      <c r="R69" s="231"/>
-      <c r="S69" s="231"/>
-      <c r="T69" s="231"/>
-      <c r="U69" s="231"/>
-      <c r="V69" s="231"/>
+      <c r="P69" s="229"/>
+      <c r="Q69" s="229"/>
+      <c r="R69" s="229"/>
+      <c r="S69" s="229"/>
+      <c r="T69" s="229"/>
+      <c r="U69" s="229"/>
+      <c r="V69" s="229"/>
     </row>
     <row r="70" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="K70" s="99"/>
-      <c r="L70" s="99"/>
-      <c r="O70" s="231"/>
-      <c r="P70" s="231"/>
-      <c r="Q70" s="231"/>
-      <c r="R70" s="231"/>
-      <c r="S70" s="231"/>
-      <c r="T70" s="231"/>
-      <c r="U70" s="231"/>
-      <c r="V70" s="231"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="85"/>
+      <c r="O70" s="229"/>
+      <c r="P70" s="229"/>
+      <c r="Q70" s="229"/>
+      <c r="R70" s="229"/>
+      <c r="S70" s="229"/>
+      <c r="T70" s="229"/>
+      <c r="U70" s="229"/>
+      <c r="V70" s="229"/>
     </row>
     <row r="71" spans="11:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="L71" s="99"/>
-      <c r="O71" s="232" t="s">
+      <c r="L71" s="85"/>
+      <c r="O71" s="230" t="s">
         <v>149</v>
       </c>
-      <c r="P71" s="232"/>
-      <c r="Q71" s="232"/>
-      <c r="R71" s="232"/>
-      <c r="S71" s="232"/>
-      <c r="T71" s="232"/>
-      <c r="U71" s="232"/>
-      <c r="V71" s="232"/>
+      <c r="P71" s="230"/>
+      <c r="Q71" s="230"/>
+      <c r="R71" s="230"/>
+      <c r="S71" s="230"/>
+      <c r="T71" s="230"/>
+      <c r="U71" s="230"/>
+      <c r="V71" s="230"/>
     </row>
     <row r="72" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="L72" s="99"/>
-      <c r="O72" s="233" t="s">
+      <c r="L72" s="85"/>
+      <c r="O72" s="231" t="s">
         <v>150</v>
       </c>
-      <c r="P72" s="233"/>
-      <c r="Q72" s="233"/>
-      <c r="R72" s="233"/>
-      <c r="S72" s="233"/>
-      <c r="T72" s="180" t="s">
+      <c r="P72" s="231"/>
+      <c r="Q72" s="231"/>
+      <c r="R72" s="231"/>
+      <c r="S72" s="231"/>
+      <c r="T72" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="U72" s="181">
+      <c r="U72" s="167">
         <f>M54/M56</f>
         <v>71.155557831389828</v>
       </c>
-      <c r="V72" s="182" t="s">
+      <c r="V72" s="168" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="L73" s="99"/>
-      <c r="O73" s="233"/>
-      <c r="P73" s="233"/>
-      <c r="Q73" s="233"/>
-      <c r="R73" s="233"/>
-      <c r="S73" s="233"/>
-      <c r="T73" s="183" t="s">
+      <c r="L73" s="85"/>
+      <c r="O73" s="231"/>
+      <c r="P73" s="231"/>
+      <c r="Q73" s="231"/>
+      <c r="R73" s="231"/>
+      <c r="S73" s="231"/>
+      <c r="T73" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="U73" s="184">
+      <c r="U73" s="170">
         <f>M55/M57</f>
         <v>22.812693587495239</v>
       </c>
-      <c r="V73" s="185" t="s">
+      <c r="V73" s="171" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="11:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L74" s="99"/>
-      <c r="O74" s="234" t="s">
+      <c r="L74" s="85"/>
+      <c r="O74" s="226" t="s">
         <v>153</v>
       </c>
-      <c r="P74" s="234"/>
-      <c r="Q74" s="234"/>
-      <c r="R74" s="234"/>
-      <c r="S74" s="234"/>
-      <c r="T74" s="234"/>
-      <c r="U74" s="234"/>
-      <c r="V74" s="234"/>
+      <c r="P74" s="226"/>
+      <c r="Q74" s="226"/>
+      <c r="R74" s="226"/>
+      <c r="S74" s="226"/>
+      <c r="T74" s="226"/>
+      <c r="U74" s="226"/>
+      <c r="V74" s="226"/>
     </row>
     <row r="75" spans="11:22" x14ac:dyDescent="0.25">
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="234"/>
-      <c r="P75" s="234"/>
-      <c r="Q75" s="234"/>
-      <c r="R75" s="234"/>
-      <c r="S75" s="234"/>
-      <c r="T75" s="234"/>
-      <c r="U75" s="234"/>
-      <c r="V75" s="234"/>
+      <c r="L75" s="85"/>
+      <c r="M75" s="85"/>
+      <c r="N75" s="85"/>
+      <c r="O75" s="226"/>
+      <c r="P75" s="226"/>
+      <c r="Q75" s="226"/>
+      <c r="R75" s="226"/>
+      <c r="S75" s="226"/>
+      <c r="T75" s="226"/>
+      <c r="U75" s="226"/>
+      <c r="V75" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -7845,3091 +7853,3091 @@
   <cols>
     <col min="5" max="5" width="10.85546875"/>
     <col min="6" max="6" width="14.5703125"/>
-    <col min="7" max="7" width="20.140625" style="186"/>
-    <col min="8" max="8" width="16" style="187"/>
-    <col min="9" max="9" width="17.140625" style="187"/>
-    <col min="10" max="10" width="18.42578125" style="187"/>
-    <col min="11" max="11" width="23.7109375" style="187"/>
-    <col min="12" max="12" width="10.5703125" style="187"/>
-    <col min="13" max="13" width="11" style="187"/>
-    <col min="14" max="14" width="12.140625" style="187"/>
-    <col min="15" max="15" width="14.85546875" style="188"/>
+    <col min="7" max="7" width="20.140625" style="172"/>
+    <col min="8" max="8" width="16" style="173"/>
+    <col min="9" max="9" width="17.140625" style="173"/>
+    <col min="10" max="10" width="18.42578125" style="173"/>
+    <col min="11" max="11" width="23.7109375" style="173"/>
+    <col min="12" max="12" width="10.5703125" style="173"/>
+    <col min="13" max="13" width="11" style="173"/>
+    <col min="14" max="14" width="12.140625" style="173"/>
+    <col min="15" max="15" width="14.85546875" style="174"/>
     <col min="20" max="20" width="10.5703125"/>
     <col min="21" max="21" width="15.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="189" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="175" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="236" t="s">
+      <c r="G1" s="233" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="191" t="s">
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="177" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="191" t="s">
+      <c r="M1" s="177" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="191" t="s">
+      <c r="N1" s="177" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="192" t="s">
+      <c r="O1" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="237" t="s">
+      <c r="P1" s="234" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="193" t="s">
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="179" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="193" t="s">
+      <c r="U1" s="179" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="235" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="194">
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="180">
         <v>8000</v>
       </c>
-      <c r="G2" s="239" t="s">
+      <c r="G2" s="236" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="195">
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="181">
         <v>1.45</v>
       </c>
-      <c r="M2" s="196">
+      <c r="M2" s="182">
         <v>6860</v>
       </c>
-      <c r="N2" s="196">
+      <c r="N2" s="182">
         <v>1.05</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="235" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="194">
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="180">
         <v>8000</v>
       </c>
-      <c r="G3" s="239" t="s">
+      <c r="G3" s="236" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="198">
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="184">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M3" s="196">
+      <c r="M3" s="182">
         <v>2550</v>
       </c>
-      <c r="N3" s="196">
+      <c r="N3" s="182">
         <v>0.42</v>
       </c>
-      <c r="O3" s="197">
+      <c r="O3" s="183">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="238"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="194">
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="180">
         <v>8000</v>
       </c>
-      <c r="G4" s="239" t="s">
+      <c r="G4" s="236" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="198">
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="184">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M4" s="196">
+      <c r="M4" s="182">
         <v>5360</v>
       </c>
-      <c r="N4" s="196">
+      <c r="N4" s="182">
         <v>0.87</v>
       </c>
-      <c r="O4" s="197"/>
+      <c r="O4" s="183"/>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="238" t="s">
+      <c r="A5" s="235" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="194">
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="180">
         <v>8000</v>
       </c>
-      <c r="G5" s="239" t="s">
+      <c r="G5" s="236" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="199">
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="185">
         <v>1.5</v>
       </c>
-      <c r="M5" s="196">
+      <c r="M5" s="182">
         <v>6290</v>
       </c>
-      <c r="N5" s="196">
+      <c r="N5" s="182">
         <v>0.91</v>
       </c>
-      <c r="O5" s="197">
+      <c r="O5" s="183">
         <v>6.3</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="238"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="194">
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="180">
         <v>7800</v>
       </c>
-      <c r="G6" s="239" t="s">
+      <c r="G6" s="236" t="s">
         <v>171</v>
       </c>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="199">
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="185">
         <v>1.55</v>
       </c>
-      <c r="M6" s="196">
+      <c r="M6" s="182">
         <v>6570</v>
       </c>
-      <c r="N6" s="196">
+      <c r="N6" s="182">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O6" s="197">
+      <c r="O6" s="183">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="238" t="s">
+      <c r="A7" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="194">
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="180">
         <v>8000</v>
       </c>
-      <c r="G7" s="239" t="s">
+      <c r="G7" s="236" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="199">
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="185">
         <v>17.77</v>
       </c>
-      <c r="M7" s="196">
+      <c r="M7" s="182">
         <v>8330</v>
       </c>
-      <c r="N7" s="196">
+      <c r="N7" s="182">
         <v>1.6</v>
       </c>
-      <c r="O7" s="197"/>
+      <c r="O7" s="183"/>
     </row>
     <row r="8" spans="1:22" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="235" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="194">
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="180">
         <v>7810</v>
       </c>
-      <c r="G8" s="239" t="s">
+      <c r="G8" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="239"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="199">
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="185">
         <v>0.92</v>
       </c>
-      <c r="M8" s="196">
+      <c r="M8" s="182">
         <v>5270</v>
       </c>
-      <c r="N8" s="196">
+      <c r="N8" s="182">
         <v>0.74</v>
       </c>
-      <c r="O8" s="197">
+      <c r="O8" s="183">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="235" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="194">
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="180">
         <v>7960</v>
       </c>
-      <c r="G9" s="239" t="s">
+      <c r="G9" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="199">
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="185">
         <v>1.3</v>
       </c>
-      <c r="M9" s="196">
+      <c r="M9" s="182">
         <v>5070</v>
       </c>
-      <c r="N9" s="196">
+      <c r="N9" s="182">
         <v>0.6</v>
       </c>
-      <c r="O9" s="197"/>
+      <c r="O9" s="183"/>
     </row>
     <row r="10" spans="1:22" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="235" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="238"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="194">
+      <c r="B10" s="235"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="180">
         <v>7800</v>
       </c>
-      <c r="G10" s="239" t="s">
+      <c r="G10" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="239"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="199">
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="185">
         <v>0.88</v>
       </c>
-      <c r="M10" s="196">
+      <c r="M10" s="182">
         <v>4520</v>
       </c>
-      <c r="N10" s="196">
+      <c r="N10" s="182">
         <v>0.74</v>
       </c>
-      <c r="O10" s="197"/>
+      <c r="O10" s="183"/>
     </row>
     <row r="11" spans="1:22" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="194" t="s">
+      <c r="E11" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="239" t="s">
+      <c r="G11" s="236" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="199">
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="185">
         <v>1.7</v>
       </c>
-      <c r="M11" s="196">
+      <c r="M11" s="182">
         <v>7080</v>
       </c>
-      <c r="N11" s="196">
+      <c r="N11" s="182">
         <v>1.05</v>
       </c>
-      <c r="O11" s="197"/>
-      <c r="T11" s="241"/>
-      <c r="U11" s="241"/>
-      <c r="V11" s="241"/>
+      <c r="O11" s="183"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
     </row>
     <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="180" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="194">
+      <c r="E12" s="180">
         <v>7850</v>
       </c>
-      <c r="G12" s="239" t="s">
+      <c r="G12" s="236" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="239"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="199">
+      <c r="H12" s="236"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="236"/>
+      <c r="L12" s="185">
         <v>1.78</v>
       </c>
-      <c r="M12" s="196">
+      <c r="M12" s="182">
         <v>8700</v>
       </c>
-      <c r="N12" s="196">
+      <c r="N12" s="182">
         <v>1.6</v>
       </c>
-      <c r="O12" s="197">
+      <c r="O12" s="183">
         <v>1.25</v>
       </c>
-      <c r="T12" s="200"/>
+      <c r="T12" s="186"/>
     </row>
     <row r="13" spans="1:22" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="194" t="s">
+      <c r="E13" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="239" t="s">
+      <c r="G13" s="236" t="s">
         <v>186</v>
       </c>
-      <c r="H13" s="239"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="199">
+      <c r="H13" s="236"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="185">
         <v>1.97</v>
       </c>
-      <c r="M13" s="196">
+      <c r="M13" s="182">
         <v>9380</v>
       </c>
-      <c r="N13" s="196">
+      <c r="N13" s="182">
         <v>1.8</v>
       </c>
-      <c r="O13" s="197">
+      <c r="O13" s="183">
         <v>6</v>
       </c>
-      <c r="T13" s="200"/>
+      <c r="T13" s="186"/>
     </row>
     <row r="14" spans="1:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="180" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="194" t="s">
+      <c r="E14" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="239" t="s">
+      <c r="G14" s="236" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="199">
+      <c r="H14" s="236"/>
+      <c r="I14" s="236"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="236"/>
+      <c r="L14" s="185">
         <v>1.97</v>
       </c>
-      <c r="M14" s="196">
+      <c r="M14" s="182">
         <v>9400</v>
       </c>
-      <c r="N14" s="196">
+      <c r="N14" s="182">
         <v>1.85</v>
       </c>
-      <c r="O14" s="197"/>
-      <c r="T14" s="200"/>
+      <c r="O14" s="183"/>
+      <c r="T14" s="186"/>
     </row>
     <row r="15" spans="1:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="194" t="s">
+      <c r="A15" s="180" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="194">
+      <c r="E15" s="180">
         <v>7700</v>
       </c>
-      <c r="G15" s="239" t="s">
+      <c r="G15" s="236" t="s">
         <v>191</v>
       </c>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="199">
+      <c r="H15" s="236"/>
+      <c r="I15" s="236"/>
+      <c r="J15" s="236"/>
+      <c r="K15" s="236"/>
+      <c r="L15" s="185">
         <v>1.6</v>
       </c>
-      <c r="M15" s="196">
+      <c r="M15" s="182">
         <v>7970</v>
       </c>
-      <c r="N15" s="196">
+      <c r="N15" s="182">
         <v>1.6</v>
       </c>
-      <c r="O15" s="197"/>
-      <c r="T15" s="200"/>
+      <c r="O15" s="183"/>
+      <c r="T15" s="186"/>
     </row>
     <row r="16" spans="1:22" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="180" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="194" t="s">
+      <c r="E16" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="239" t="s">
+      <c r="G16" s="236" t="s">
         <v>194</v>
       </c>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="199">
+      <c r="H16" s="236"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="236"/>
+      <c r="L16" s="185">
         <v>1.92</v>
       </c>
-      <c r="M16" s="196">
+      <c r="M16" s="182">
         <v>9200</v>
       </c>
-      <c r="N16" s="196" t="s">
+      <c r="N16" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="197"/>
-      <c r="T16" s="200"/>
+      <c r="O16" s="183"/>
+      <c r="T16" s="186"/>
     </row>
     <row r="17" spans="1:20" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="180" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="194">
+      <c r="E17" s="180">
         <v>7850</v>
       </c>
-      <c r="G17" s="239" t="s">
+      <c r="G17" s="236" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="199">
+      <c r="H17" s="236"/>
+      <c r="I17" s="236"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="236"/>
+      <c r="L17" s="185">
         <v>1.59</v>
       </c>
-      <c r="M17" s="196">
+      <c r="M17" s="182">
         <v>8500</v>
       </c>
-      <c r="N17" s="196">
+      <c r="N17" s="182">
         <v>1.42</v>
       </c>
-      <c r="O17" s="197"/>
-      <c r="T17" s="200"/>
+      <c r="O17" s="183"/>
+      <c r="T17" s="186"/>
     </row>
     <row r="18" spans="1:20" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="194">
+      <c r="E18" s="180">
         <v>7900</v>
       </c>
-      <c r="G18" s="239" t="s">
+      <c r="G18" s="236" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="239"/>
-      <c r="L18" s="199">
+      <c r="H18" s="236"/>
+      <c r="I18" s="236"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="236"/>
+      <c r="L18" s="185">
         <v>1.24</v>
       </c>
-      <c r="M18" s="196">
+      <c r="M18" s="182">
         <v>5550</v>
       </c>
-      <c r="N18" s="196">
+      <c r="N18" s="182">
         <v>0.8</v>
       </c>
-      <c r="O18" s="197"/>
-      <c r="T18" s="200"/>
+      <c r="O18" s="183"/>
+      <c r="T18" s="186"/>
     </row>
     <row r="19" spans="1:20" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="180" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="194">
+      <c r="E19" s="180">
         <v>7700</v>
       </c>
-      <c r="G19" s="239" t="s">
+      <c r="G19" s="236" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="239"/>
-      <c r="I19" s="239"/>
-      <c r="J19" s="239"/>
-      <c r="K19" s="239"/>
-      <c r="L19" s="199">
+      <c r="H19" s="236"/>
+      <c r="I19" s="236"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="236"/>
+      <c r="L19" s="185">
         <v>1.5</v>
       </c>
-      <c r="M19" s="196">
+      <c r="M19" s="182">
         <v>6025</v>
       </c>
-      <c r="N19" s="196">
+      <c r="N19" s="182">
         <v>0.6</v>
       </c>
-      <c r="O19" s="197"/>
-      <c r="T19" s="200"/>
+      <c r="O19" s="183"/>
+      <c r="T19" s="186"/>
     </row>
     <row r="20" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="194" t="s">
+      <c r="A20" s="180" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="194" t="s">
+      <c r="E20" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="239" t="s">
+      <c r="G20" s="236" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="239"/>
-      <c r="I20" s="239"/>
-      <c r="J20" s="239"/>
-      <c r="K20" s="239"/>
-      <c r="L20" s="199">
+      <c r="H20" s="236"/>
+      <c r="I20" s="236"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="236"/>
+      <c r="L20" s="185">
         <v>1.98</v>
       </c>
-      <c r="M20" s="196">
+      <c r="M20" s="182">
         <v>10</v>
       </c>
-      <c r="N20" s="196">
+      <c r="N20" s="182">
         <v>1.95</v>
       </c>
-      <c r="O20" s="197"/>
-      <c r="T20" s="200"/>
+      <c r="O20" s="183"/>
+      <c r="T20" s="186"/>
     </row>
     <row r="21" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="194" t="s">
+      <c r="A21" s="180" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E21" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="G21" s="239" t="s">
+      <c r="G21" s="236" t="s">
         <v>206</v>
       </c>
-      <c r="H21" s="239"/>
-      <c r="I21" s="239"/>
-      <c r="J21" s="239"/>
-      <c r="K21" s="239"/>
-      <c r="L21" s="199">
+      <c r="H21" s="236"/>
+      <c r="I21" s="236"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="236"/>
+      <c r="L21" s="185">
         <v>1.48</v>
       </c>
-      <c r="M21" s="196">
+      <c r="M21" s="182">
         <v>7200</v>
       </c>
-      <c r="N21" s="196">
+      <c r="N21" s="182">
         <v>1.25</v>
       </c>
-      <c r="O21" s="197">
+      <c r="O21" s="183">
         <v>2.5</v>
       </c>
-      <c r="T21" s="200"/>
+      <c r="T21" s="186"/>
     </row>
     <row r="22" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="180" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="194" t="s">
+      <c r="E22" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="239" t="s">
+      <c r="G22" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="H22" s="239"/>
-      <c r="I22" s="239"/>
-      <c r="J22" s="239"/>
-      <c r="K22" s="239"/>
-      <c r="L22" s="199">
+      <c r="H22" s="236"/>
+      <c r="I22" s="236"/>
+      <c r="J22" s="236"/>
+      <c r="K22" s="236"/>
+      <c r="L22" s="185">
         <v>1.38</v>
       </c>
-      <c r="M22" s="196">
+      <c r="M22" s="182">
         <v>6610</v>
       </c>
-      <c r="N22" s="196">
+      <c r="N22" s="182">
         <v>1.17</v>
       </c>
-      <c r="O22" s="197"/>
-      <c r="T22" s="200"/>
+      <c r="O22" s="183"/>
+      <c r="T22" s="186"/>
     </row>
     <row r="23" spans="1:20" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="180" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="194">
+      <c r="E23" s="180">
         <v>7830</v>
       </c>
-      <c r="G23" s="239" t="s">
+      <c r="G23" s="236" t="s">
         <v>211</v>
       </c>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="239"/>
-      <c r="L23" s="199">
+      <c r="H23" s="236"/>
+      <c r="I23" s="236"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="236"/>
+      <c r="L23" s="185">
         <v>1.71</v>
       </c>
-      <c r="M23" s="196">
+      <c r="M23" s="182">
         <v>7350</v>
       </c>
-      <c r="N23" s="196">
+      <c r="N23" s="182">
         <v>1.2</v>
       </c>
-      <c r="O23" s="197">
+      <c r="O23" s="183">
         <v>8</v>
       </c>
-      <c r="T23" s="200"/>
+      <c r="T23" s="186"/>
     </row>
     <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="194" t="s">
+      <c r="A24" s="180" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="194">
+      <c r="E24" s="180">
         <v>7840</v>
       </c>
-      <c r="G24" s="239" t="s">
+      <c r="G24" s="236" t="s">
         <v>213</v>
       </c>
-      <c r="H24" s="239"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="239"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="199">
+      <c r="H24" s="236"/>
+      <c r="I24" s="236"/>
+      <c r="J24" s="236"/>
+      <c r="K24" s="236"/>
+      <c r="L24" s="185">
         <v>1.65</v>
       </c>
-      <c r="M24" s="196">
+      <c r="M24" s="182">
         <v>8700</v>
       </c>
-      <c r="N24" s="196">
+      <c r="N24" s="182">
         <v>1.93</v>
       </c>
-      <c r="O24" s="197"/>
-      <c r="T24" s="200"/>
+      <c r="O24" s="183"/>
+      <c r="T24" s="186"/>
     </row>
     <row r="25" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="194" t="s">
+      <c r="A25" s="180" t="s">
         <v>214</v>
       </c>
-      <c r="E25" s="194" t="s">
+      <c r="E25" s="180" t="s">
         <v>215</v>
       </c>
-      <c r="G25" s="239" t="s">
+      <c r="G25" s="236" t="s">
         <v>216</v>
       </c>
-      <c r="H25" s="239"/>
-      <c r="I25" s="239"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="239"/>
-      <c r="L25" s="199">
+      <c r="H25" s="236"/>
+      <c r="I25" s="236"/>
+      <c r="J25" s="236"/>
+      <c r="K25" s="236"/>
+      <c r="L25" s="185">
         <v>1.4</v>
       </c>
-      <c r="M25" s="196">
+      <c r="M25" s="182">
         <v>6400</v>
       </c>
-      <c r="N25" s="196">
+      <c r="N25" s="182">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O25" s="197"/>
-      <c r="T25" s="200"/>
+      <c r="O25" s="183"/>
+      <c r="T25" s="186"/>
     </row>
     <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="180" t="s">
         <v>217</v>
       </c>
-      <c r="E26" s="194">
+      <c r="E26" s="180">
         <v>7790</v>
       </c>
-      <c r="G26" s="239" t="s">
+      <c r="G26" s="236" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="239"/>
-      <c r="I26" s="239"/>
-      <c r="J26" s="239"/>
-      <c r="K26" s="239"/>
-      <c r="L26" s="199">
+      <c r="H26" s="236"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="236"/>
+      <c r="L26" s="185">
         <v>1.32</v>
       </c>
-      <c r="M26" s="196">
+      <c r="M26" s="182">
         <v>6750</v>
       </c>
-      <c r="N26" s="196">
+      <c r="N26" s="182">
         <v>0.95</v>
       </c>
-      <c r="O26" s="197"/>
-      <c r="T26" s="200"/>
+      <c r="O26" s="183"/>
+      <c r="T26" s="186"/>
     </row>
     <row r="27" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="180" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="194" t="s">
+      <c r="E27" s="180" t="s">
         <v>215</v>
       </c>
-      <c r="G27" s="239" t="s">
+      <c r="G27" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="239"/>
-      <c r="I27" s="239"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="239"/>
-      <c r="L27" s="199">
+      <c r="H27" s="236"/>
+      <c r="I27" s="236"/>
+      <c r="J27" s="236"/>
+      <c r="K27" s="236"/>
+      <c r="L27" s="185">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M27" s="196">
+      <c r="M27" s="182">
         <v>6360</v>
       </c>
-      <c r="N27" s="196">
+      <c r="N27" s="182">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O27" s="197"/>
-      <c r="T27" s="200"/>
+      <c r="O27" s="183"/>
+      <c r="T27" s="186"/>
     </row>
     <row r="28" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="194" t="s">
+      <c r="A28" s="180" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="194">
+      <c r="E28" s="180">
         <v>7900</v>
       </c>
-      <c r="G28" s="239" t="s">
+      <c r="G28" s="236" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="239"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="239"/>
-      <c r="K28" s="239"/>
-      <c r="L28" s="199">
+      <c r="H28" s="236"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="236"/>
+      <c r="L28" s="185">
         <v>1.59</v>
       </c>
-      <c r="M28" s="196">
+      <c r="M28" s="182">
         <v>8100</v>
       </c>
-      <c r="N28" s="196">
+      <c r="N28" s="182">
         <v>1.54</v>
       </c>
-      <c r="O28" s="197">
+      <c r="O28" s="183">
         <v>2.5</v>
       </c>
-      <c r="T28" s="200"/>
+      <c r="T28" s="186"/>
     </row>
     <row r="29" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="194" t="s">
+      <c r="A29" s="180" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="194">
+      <c r="E29" s="180">
         <v>7950</v>
       </c>
-      <c r="G29" s="239" t="s">
+      <c r="G29" s="236" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="239"/>
-      <c r="I29" s="239"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="239"/>
-      <c r="L29" s="199">
+      <c r="H29" s="236"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="236"/>
+      <c r="L29" s="185">
         <v>1.87</v>
       </c>
-      <c r="M29" s="196">
+      <c r="M29" s="182">
         <v>8120</v>
       </c>
-      <c r="N29" s="196">
+      <c r="N29" s="182">
         <v>1.6</v>
       </c>
-      <c r="O29" s="197"/>
-      <c r="T29" s="200"/>
+      <c r="O29" s="183"/>
+      <c r="T29" s="186"/>
     </row>
     <row r="30" spans="1:20" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="194" t="s">
+      <c r="A30" s="180" t="s">
         <v>225</v>
       </c>
-      <c r="E30" s="194">
+      <c r="E30" s="180">
         <v>7750</v>
       </c>
-      <c r="G30" s="239" t="s">
+      <c r="G30" s="236" t="s">
         <v>226</v>
       </c>
-      <c r="H30" s="239"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="239"/>
-      <c r="L30" s="199">
+      <c r="H30" s="236"/>
+      <c r="I30" s="236"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="236"/>
+      <c r="L30" s="185">
         <v>1.86</v>
       </c>
-      <c r="M30" s="196">
+      <c r="M30" s="182">
         <v>9100</v>
       </c>
-      <c r="N30" s="196">
+      <c r="N30" s="182">
         <v>1.7</v>
       </c>
-      <c r="O30" s="197">
+      <c r="O30" s="183">
         <v>4</v>
       </c>
-      <c r="T30" s="200"/>
+      <c r="T30" s="186"/>
     </row>
     <row r="31" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="194" t="s">
+      <c r="A31" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="194">
+      <c r="E31" s="180">
         <v>7745</v>
       </c>
-      <c r="G31" s="239" t="s">
+      <c r="G31" s="236" t="s">
         <v>228</v>
       </c>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="239"/>
-      <c r="K31" s="239"/>
-      <c r="L31" s="199">
+      <c r="H31" s="236"/>
+      <c r="I31" s="236"/>
+      <c r="J31" s="236"/>
+      <c r="K31" s="236"/>
+      <c r="L31" s="185">
         <v>1.83</v>
       </c>
-      <c r="M31" s="196">
+      <c r="M31" s="182">
         <v>8690</v>
       </c>
-      <c r="N31" s="196">
+      <c r="N31" s="182">
         <v>1.54</v>
       </c>
-      <c r="O31" s="197">
+      <c r="O31" s="183">
         <v>6.4</v>
       </c>
-      <c r="T31" s="200"/>
+      <c r="T31" s="186"/>
     </row>
     <row r="32" spans="1:20" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="194" t="s">
+      <c r="A32" s="180" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="194">
+      <c r="E32" s="180">
         <v>7800</v>
       </c>
-      <c r="G32" s="239" t="s">
+      <c r="G32" s="236" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="239"/>
-      <c r="I32" s="239"/>
-      <c r="J32" s="239"/>
-      <c r="K32" s="239"/>
-      <c r="L32" s="199">
+      <c r="H32" s="236"/>
+      <c r="I32" s="236"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="236"/>
+      <c r="L32" s="185">
         <v>1.95</v>
       </c>
-      <c r="M32" s="196">
+      <c r="M32" s="182">
         <v>10.6</v>
       </c>
-      <c r="N32" s="196">
+      <c r="N32" s="182">
         <v>2.38</v>
       </c>
-      <c r="O32" s="197"/>
-      <c r="T32" s="200"/>
+      <c r="O32" s="183"/>
+      <c r="T32" s="186"/>
     </row>
     <row r="33" spans="1:20" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="194" t="s">
+      <c r="A33" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="194" t="s">
+      <c r="E33" s="180" t="s">
         <v>193</v>
       </c>
-      <c r="G33" s="239" t="s">
+      <c r="G33" s="236" t="s">
         <v>232</v>
       </c>
-      <c r="H33" s="239"/>
-      <c r="I33" s="239"/>
-      <c r="J33" s="239"/>
-      <c r="K33" s="239"/>
-      <c r="L33" s="199">
+      <c r="H33" s="236"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="236"/>
+      <c r="L33" s="185">
         <v>1.66</v>
       </c>
-      <c r="M33" s="196">
+      <c r="M33" s="182">
         <v>7520</v>
       </c>
-      <c r="N33" s="196">
+      <c r="N33" s="182">
         <v>1.33</v>
       </c>
-      <c r="O33" s="197">
+      <c r="O33" s="183">
         <v>5.7</v>
       </c>
-      <c r="T33" s="200"/>
+      <c r="T33" s="186"/>
     </row>
     <row r="34" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="194" t="s">
+      <c r="A34" s="180" t="s">
         <v>233</v>
       </c>
-      <c r="E34" s="194">
+      <c r="E34" s="180">
         <v>7630</v>
       </c>
-      <c r="G34" s="239" t="s">
+      <c r="G34" s="236" t="s">
         <v>234</v>
       </c>
-      <c r="H34" s="239"/>
-      <c r="I34" s="239"/>
-      <c r="J34" s="239"/>
-      <c r="K34" s="239"/>
-      <c r="L34" s="199">
+      <c r="H34" s="236"/>
+      <c r="I34" s="236"/>
+      <c r="J34" s="236"/>
+      <c r="K34" s="236"/>
+      <c r="L34" s="185">
         <v>1.8</v>
       </c>
-      <c r="M34" s="196">
+      <c r="M34" s="182">
         <v>6450</v>
       </c>
-      <c r="N34" s="196">
+      <c r="N34" s="182">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O34" s="197"/>
-      <c r="T34" s="200"/>
+      <c r="O34" s="183"/>
+      <c r="T34" s="186"/>
     </row>
     <row r="35" spans="1:20" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="194" t="s">
+      <c r="A35" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="E35" s="194" t="s">
+      <c r="E35" s="180" t="s">
         <v>236</v>
       </c>
-      <c r="G35" s="239" t="s">
+      <c r="G35" s="236" t="s">
         <v>237</v>
       </c>
-      <c r="H35" s="239"/>
-      <c r="I35" s="239"/>
-      <c r="J35" s="239"/>
-      <c r="K35" s="239"/>
-      <c r="L35" s="199">
+      <c r="H35" s="236"/>
+      <c r="I35" s="236"/>
+      <c r="J35" s="236"/>
+      <c r="K35" s="236"/>
+      <c r="L35" s="185">
         <v>1.81</v>
       </c>
-      <c r="M35" s="196">
+      <c r="M35" s="182">
         <v>7060</v>
       </c>
-      <c r="N35" s="196">
+      <c r="N35" s="182">
         <v>1.17</v>
       </c>
-      <c r="O35" s="197"/>
-      <c r="T35" s="200"/>
+      <c r="O35" s="183"/>
+      <c r="T35" s="186"/>
     </row>
     <row r="36" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="194" t="s">
+      <c r="A36" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="194">
+      <c r="E36" s="180">
         <v>7880</v>
       </c>
-      <c r="G36" s="239" t="s">
+      <c r="G36" s="236" t="s">
         <v>239</v>
       </c>
-      <c r="H36" s="239"/>
-      <c r="I36" s="239"/>
-      <c r="J36" s="239"/>
-      <c r="K36" s="239"/>
-      <c r="L36" s="199">
+      <c r="H36" s="236"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="236"/>
+      <c r="K36" s="236"/>
+      <c r="L36" s="185">
         <v>1.68</v>
       </c>
-      <c r="M36" s="196">
+      <c r="M36" s="182">
         <v>7450</v>
       </c>
-      <c r="N36" s="196">
+      <c r="N36" s="182">
         <v>1.17</v>
       </c>
-      <c r="O36" s="197"/>
-      <c r="T36" s="200"/>
+      <c r="O36" s="183"/>
+      <c r="T36" s="186"/>
     </row>
     <row r="37" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="194" t="s">
+      <c r="A37" s="180" t="s">
         <v>240</v>
       </c>
-      <c r="E37" s="194" t="s">
+      <c r="E37" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="G37" s="239" t="s">
+      <c r="G37" s="236" t="s">
         <v>242</v>
       </c>
-      <c r="H37" s="239"/>
-      <c r="I37" s="239"/>
-      <c r="J37" s="239"/>
-      <c r="K37" s="239"/>
-      <c r="L37" s="199">
+      <c r="H37" s="236"/>
+      <c r="I37" s="236"/>
+      <c r="J37" s="236"/>
+      <c r="K37" s="236"/>
+      <c r="L37" s="185">
         <v>1.39</v>
       </c>
-      <c r="M37" s="196">
+      <c r="M37" s="182">
         <v>5980</v>
       </c>
-      <c r="N37" s="196">
+      <c r="N37" s="182">
         <v>1.4</v>
       </c>
-      <c r="O37" s="197"/>
-      <c r="T37" s="200"/>
+      <c r="O37" s="183"/>
+      <c r="T37" s="186"/>
     </row>
     <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="194" t="s">
+      <c r="A38" s="180" t="s">
         <v>243</v>
       </c>
-      <c r="E38" s="194">
+      <c r="E38" s="180">
         <v>7800</v>
       </c>
-      <c r="G38" s="239" t="s">
+      <c r="G38" s="236" t="s">
         <v>244</v>
       </c>
-      <c r="H38" s="239"/>
-      <c r="I38" s="239"/>
-      <c r="J38" s="239"/>
-      <c r="K38" s="239"/>
-      <c r="L38" s="199">
+      <c r="H38" s="236"/>
+      <c r="I38" s="236"/>
+      <c r="J38" s="236"/>
+      <c r="K38" s="236"/>
+      <c r="L38" s="185">
         <v>1.81</v>
       </c>
-      <c r="M38" s="196">
+      <c r="M38" s="182">
         <v>8720</v>
       </c>
-      <c r="N38" s="196">
+      <c r="N38" s="182">
         <v>1.6</v>
       </c>
-      <c r="O38" s="197"/>
-      <c r="T38" s="200"/>
+      <c r="O38" s="183"/>
+      <c r="T38" s="186"/>
     </row>
     <row r="39" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="194" t="s">
+      <c r="A39" s="180" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="194" t="s">
+      <c r="E39" s="180" t="s">
         <v>246</v>
       </c>
-      <c r="G39" s="239" t="s">
+      <c r="G39" s="236" t="s">
         <v>247</v>
       </c>
-      <c r="H39" s="239"/>
-      <c r="I39" s="239"/>
-      <c r="J39" s="239"/>
-      <c r="K39" s="239"/>
-      <c r="L39" s="199">
+      <c r="H39" s="236"/>
+      <c r="I39" s="236"/>
+      <c r="J39" s="236"/>
+      <c r="K39" s="236"/>
+      <c r="L39" s="185">
         <v>1.33</v>
       </c>
-      <c r="M39" s="196">
+      <c r="M39" s="182">
         <v>5690</v>
       </c>
-      <c r="N39" s="196">
+      <c r="N39" s="182">
         <v>0.8</v>
       </c>
-      <c r="O39" s="197"/>
-      <c r="T39" s="200"/>
+      <c r="O39" s="183"/>
+      <c r="T39" s="186"/>
     </row>
     <row r="40" spans="1:20" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="194" t="s">
+      <c r="A40" s="180" t="s">
         <v>248</v>
       </c>
-      <c r="E40" s="194" t="s">
+      <c r="E40" s="180" t="s">
         <v>249</v>
       </c>
-      <c r="G40" s="239" t="s">
+      <c r="G40" s="236" t="s">
         <v>250</v>
       </c>
-      <c r="H40" s="239"/>
-      <c r="I40" s="239"/>
-      <c r="J40" s="239"/>
-      <c r="K40" s="239"/>
-      <c r="L40" s="199">
+      <c r="H40" s="236"/>
+      <c r="I40" s="236"/>
+      <c r="J40" s="236"/>
+      <c r="K40" s="236"/>
+      <c r="L40" s="185">
         <v>1.55</v>
       </c>
-      <c r="M40" s="196">
+      <c r="M40" s="182">
         <v>7670</v>
       </c>
-      <c r="N40" s="196">
+      <c r="N40" s="182">
         <v>1.35</v>
       </c>
-      <c r="O40" s="197"/>
-      <c r="T40" s="200"/>
+      <c r="O40" s="183"/>
+      <c r="T40" s="186"/>
     </row>
     <row r="41" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="180" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="194" t="s">
+      <c r="E41" s="180" t="s">
         <v>252</v>
       </c>
-      <c r="G41" s="239" t="s">
+      <c r="G41" s="236" t="s">
         <v>253</v>
       </c>
-      <c r="H41" s="239"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="239"/>
-      <c r="K41" s="239"/>
-      <c r="L41" s="199">
+      <c r="H41" s="236"/>
+      <c r="I41" s="236"/>
+      <c r="J41" s="236"/>
+      <c r="K41" s="236"/>
+      <c r="L41" s="185">
         <v>1.72</v>
       </c>
-      <c r="M41" s="196">
+      <c r="M41" s="182">
         <v>7840</v>
       </c>
-      <c r="N41" s="196">
+      <c r="N41" s="182">
         <v>1.33</v>
       </c>
-      <c r="O41" s="197"/>
-      <c r="T41" s="200"/>
+      <c r="O41" s="183"/>
+      <c r="T41" s="186"/>
     </row>
     <row r="42" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="194" t="s">
+      <c r="A42" s="180" t="s">
         <v>254</v>
       </c>
-      <c r="E42" s="194">
+      <c r="E42" s="180">
         <v>7720</v>
       </c>
-      <c r="G42" s="239" t="s">
+      <c r="G42" s="236" t="s">
         <v>255</v>
       </c>
-      <c r="H42" s="239"/>
-      <c r="I42" s="239"/>
-      <c r="J42" s="239"/>
-      <c r="K42" s="239"/>
-      <c r="L42" s="199">
+      <c r="H42" s="236"/>
+      <c r="I42" s="236"/>
+      <c r="J42" s="236"/>
+      <c r="K42" s="236"/>
+      <c r="L42" s="185">
         <v>1.6</v>
       </c>
-      <c r="M42" s="196">
+      <c r="M42" s="182">
         <v>7630</v>
       </c>
-      <c r="N42" s="196">
+      <c r="N42" s="182">
         <v>1.33</v>
       </c>
-      <c r="O42" s="197"/>
-      <c r="T42" s="200"/>
+      <c r="O42" s="183"/>
+      <c r="T42" s="186"/>
     </row>
     <row r="43" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="194" t="s">
+      <c r="A43" s="180" t="s">
         <v>256</v>
       </c>
-      <c r="E43" s="194" t="s">
+      <c r="E43" s="180" t="s">
         <v>257</v>
       </c>
-      <c r="G43" s="239" t="s">
+      <c r="G43" s="236" t="s">
         <v>258</v>
       </c>
-      <c r="H43" s="239"/>
-      <c r="I43" s="239"/>
-      <c r="J43" s="239"/>
-      <c r="K43" s="239"/>
-      <c r="L43" s="199">
+      <c r="H43" s="236"/>
+      <c r="I43" s="236"/>
+      <c r="J43" s="236"/>
+      <c r="K43" s="236"/>
+      <c r="L43" s="185">
         <v>1.59</v>
       </c>
-      <c r="M43" s="196">
+      <c r="M43" s="182">
         <v>8040</v>
       </c>
-      <c r="N43" s="196">
+      <c r="N43" s="182">
         <v>1.34</v>
       </c>
-      <c r="O43" s="197"/>
-      <c r="T43" s="200"/>
+      <c r="O43" s="183"/>
+      <c r="T43" s="186"/>
     </row>
     <row r="44" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="180" t="s">
         <v>259</v>
       </c>
-      <c r="E44" s="194" t="s">
+      <c r="E44" s="180" t="s">
         <v>257</v>
       </c>
-      <c r="G44" s="239" t="s">
+      <c r="G44" s="236" t="s">
         <v>260</v>
       </c>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="199">
+      <c r="H44" s="236"/>
+      <c r="I44" s="236"/>
+      <c r="J44" s="236"/>
+      <c r="K44" s="236"/>
+      <c r="L44" s="185">
         <v>1.48</v>
       </c>
-      <c r="M44" s="196">
+      <c r="M44" s="182">
         <v>8060</v>
       </c>
-      <c r="N44" s="196">
+      <c r="N44" s="182">
         <v>1.5</v>
       </c>
-      <c r="O44" s="197"/>
-      <c r="T44" s="200"/>
+      <c r="O44" s="183"/>
+      <c r="T44" s="186"/>
     </row>
     <row r="45" spans="1:20" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="194" t="s">
+      <c r="A45" s="180" t="s">
         <v>261</v>
       </c>
-      <c r="E45" s="194">
+      <c r="E45" s="180">
         <v>7900</v>
       </c>
-      <c r="G45" s="239" t="s">
+      <c r="G45" s="236" t="s">
         <v>262</v>
       </c>
-      <c r="H45" s="239"/>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="199">
+      <c r="H45" s="236"/>
+      <c r="I45" s="236"/>
+      <c r="J45" s="236"/>
+      <c r="K45" s="236"/>
+      <c r="L45" s="185">
         <v>1.39</v>
       </c>
-      <c r="M45" s="196">
+      <c r="M45" s="182">
         <v>8290</v>
       </c>
-      <c r="N45" s="196">
+      <c r="N45" s="182">
         <v>1.5</v>
       </c>
-      <c r="O45" s="197"/>
-      <c r="T45" s="200"/>
+      <c r="O45" s="183"/>
+      <c r="T45" s="186"/>
     </row>
     <row r="46" spans="1:20" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="194" t="s">
+      <c r="A46" s="180" t="s">
         <v>263</v>
       </c>
-      <c r="E46" s="194" t="s">
+      <c r="E46" s="180" t="s">
         <v>264</v>
       </c>
-      <c r="G46" s="239" t="s">
+      <c r="G46" s="236" t="s">
         <v>265</v>
       </c>
-      <c r="H46" s="239"/>
-      <c r="I46" s="239"/>
-      <c r="J46" s="239"/>
-      <c r="K46" s="239"/>
-      <c r="L46" s="199">
+      <c r="H46" s="236"/>
+      <c r="I46" s="236"/>
+      <c r="J46" s="236"/>
+      <c r="K46" s="236"/>
+      <c r="L46" s="185">
         <v>1.65</v>
       </c>
-      <c r="M46" s="196">
+      <c r="M46" s="182">
         <v>8470</v>
       </c>
-      <c r="N46" s="196">
+      <c r="N46" s="182">
         <v>1.6</v>
       </c>
-      <c r="O46" s="197"/>
-      <c r="T46" s="200"/>
+      <c r="O46" s="183"/>
+      <c r="T46" s="186"/>
     </row>
     <row r="47" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="194" t="s">
+      <c r="A47" s="180" t="s">
         <v>266</v>
       </c>
-      <c r="E47" s="194">
+      <c r="E47" s="180">
         <v>7820</v>
       </c>
-      <c r="G47" s="239" t="s">
+      <c r="G47" s="236" t="s">
         <v>267</v>
       </c>
-      <c r="H47" s="239"/>
-      <c r="I47" s="239"/>
-      <c r="J47" s="239"/>
-      <c r="K47" s="239"/>
-      <c r="L47" s="199">
+      <c r="H47" s="236"/>
+      <c r="I47" s="236"/>
+      <c r="J47" s="236"/>
+      <c r="K47" s="236"/>
+      <c r="L47" s="185">
         <v>1.6</v>
       </c>
-      <c r="M47" s="196">
+      <c r="M47" s="182">
         <v>8100</v>
       </c>
-      <c r="N47" s="196">
+      <c r="N47" s="182">
         <v>1.6</v>
       </c>
-      <c r="O47" s="197"/>
+      <c r="O47" s="183"/>
     </row>
     <row r="48" spans="1:20" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="194" t="s">
+      <c r="A48" s="180" t="s">
         <v>268</v>
       </c>
-      <c r="E48" s="194">
+      <c r="E48" s="180">
         <v>7800</v>
       </c>
-      <c r="G48" s="239" t="s">
+      <c r="G48" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="H48" s="239"/>
-      <c r="I48" s="239"/>
-      <c r="J48" s="239"/>
-      <c r="K48" s="239"/>
-      <c r="L48" s="199">
+      <c r="H48" s="236"/>
+      <c r="I48" s="236"/>
+      <c r="J48" s="236"/>
+      <c r="K48" s="236"/>
+      <c r="L48" s="185">
         <v>1.8</v>
       </c>
-      <c r="M48" s="196">
+      <c r="M48" s="182">
         <v>7550</v>
       </c>
-      <c r="N48" s="196">
+      <c r="N48" s="182">
         <v>1.17</v>
       </c>
-      <c r="O48" s="197"/>
+      <c r="O48" s="183"/>
     </row>
     <row r="49" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="194" t="s">
+      <c r="A49" s="180" t="s">
         <v>270</v>
       </c>
-      <c r="E49" s="194">
+      <c r="E49" s="180">
         <v>7750</v>
       </c>
-      <c r="G49" s="242" t="s">
+      <c r="G49" s="239" t="s">
         <v>271</v>
       </c>
-      <c r="H49" s="242"/>
-      <c r="I49" s="242"/>
-      <c r="J49" s="242"/>
-      <c r="K49" s="242"/>
-      <c r="L49" s="201">
+      <c r="H49" s="239"/>
+      <c r="I49" s="239"/>
+      <c r="J49" s="239"/>
+      <c r="K49" s="239"/>
+      <c r="L49" s="187">
         <v>1.62</v>
       </c>
-      <c r="M49" s="201">
+      <c r="M49" s="187">
         <v>6900</v>
       </c>
-      <c r="N49" s="201">
+      <c r="N49" s="187">
         <v>1</v>
       </c>
-      <c r="O49" s="197">
+      <c r="O49" s="183">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="194" t="s">
+      <c r="A50" s="180" t="s">
         <v>272</v>
       </c>
-      <c r="E50" s="194" t="s">
+      <c r="E50" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="G50" s="242" t="s">
+      <c r="G50" s="239" t="s">
         <v>274</v>
       </c>
-      <c r="H50" s="242"/>
-      <c r="I50" s="242"/>
-      <c r="J50" s="242"/>
-      <c r="K50" s="242"/>
-      <c r="L50" s="201">
+      <c r="H50" s="239"/>
+      <c r="I50" s="239"/>
+      <c r="J50" s="239"/>
+      <c r="K50" s="239"/>
+      <c r="L50" s="187">
         <v>1.56</v>
       </c>
-      <c r="M50" s="201">
+      <c r="M50" s="187">
         <v>6200</v>
       </c>
-      <c r="N50" s="201">
+      <c r="N50" s="187">
         <v>1</v>
       </c>
-      <c r="O50" s="197">
+      <c r="O50" s="183">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="194" t="s">
+      <c r="A51" s="180" t="s">
         <v>275</v>
       </c>
-      <c r="E51" s="194">
+      <c r="E51" s="180">
         <v>7810</v>
       </c>
-      <c r="G51" s="243" t="s">
+      <c r="G51" s="240" t="s">
         <v>276</v>
       </c>
-      <c r="H51" s="243"/>
-      <c r="I51" s="243"/>
-      <c r="J51" s="243"/>
-      <c r="K51" s="243"/>
-      <c r="L51" s="202">
+      <c r="H51" s="240"/>
+      <c r="I51" s="240"/>
+      <c r="J51" s="240"/>
+      <c r="K51" s="240"/>
+      <c r="L51" s="188">
         <v>1.6</v>
       </c>
-      <c r="M51" s="203">
+      <c r="M51" s="189">
         <v>6900</v>
       </c>
-      <c r="N51" s="203">
+      <c r="N51" s="189">
         <v>1</v>
       </c>
-      <c r="O51" s="204">
+      <c r="O51" s="190">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="194" t="s">
+      <c r="A52" s="180" t="s">
         <v>277</v>
       </c>
-      <c r="E52" s="194" t="s">
+      <c r="E52" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="G52" s="239" t="s">
+      <c r="G52" s="236" t="s">
         <v>278</v>
       </c>
-      <c r="H52" s="239"/>
-      <c r="I52" s="239"/>
-      <c r="J52" s="239"/>
-      <c r="K52" s="239"/>
-      <c r="L52" s="199">
+      <c r="H52" s="236"/>
+      <c r="I52" s="236"/>
+      <c r="J52" s="236"/>
+      <c r="K52" s="236"/>
+      <c r="L52" s="185">
         <v>1.18</v>
       </c>
-      <c r="M52" s="196">
+      <c r="M52" s="182">
         <v>5300</v>
       </c>
-      <c r="N52" s="196">
+      <c r="N52" s="182">
         <v>0.8</v>
       </c>
-      <c r="O52" s="197"/>
+      <c r="O52" s="183"/>
     </row>
     <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="194" t="s">
+      <c r="A53" s="180" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="194">
+      <c r="E53" s="180">
         <v>7850</v>
       </c>
-      <c r="G53" s="239" t="s">
+      <c r="G53" s="236" t="s">
         <v>280</v>
       </c>
-      <c r="H53" s="239"/>
-      <c r="I53" s="239"/>
-      <c r="J53" s="239"/>
-      <c r="K53" s="239"/>
-      <c r="L53" s="199">
+      <c r="H53" s="236"/>
+      <c r="I53" s="236"/>
+      <c r="J53" s="236"/>
+      <c r="K53" s="236"/>
+      <c r="L53" s="185">
         <v>1.6</v>
       </c>
-      <c r="M53" s="196">
+      <c r="M53" s="182">
         <v>7300</v>
       </c>
-      <c r="N53" s="196">
+      <c r="N53" s="182">
         <v>1.2</v>
       </c>
-      <c r="O53" s="197"/>
+      <c r="O53" s="183"/>
     </row>
     <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="194" t="s">
+      <c r="A54" s="180" t="s">
         <v>281</v>
       </c>
-      <c r="E54" s="194">
+      <c r="E54" s="180">
         <v>7820</v>
       </c>
-      <c r="G54" s="239" t="s">
+      <c r="G54" s="236" t="s">
         <v>282</v>
       </c>
-      <c r="H54" s="239"/>
-      <c r="I54" s="239"/>
-      <c r="J54" s="239"/>
-      <c r="K54" s="239"/>
-      <c r="L54" s="199">
+      <c r="H54" s="236"/>
+      <c r="I54" s="236"/>
+      <c r="J54" s="236"/>
+      <c r="K54" s="236"/>
+      <c r="L54" s="185">
         <v>1.6</v>
       </c>
-      <c r="M54" s="196">
+      <c r="M54" s="182">
         <v>7370</v>
       </c>
-      <c r="N54" s="196">
+      <c r="N54" s="182">
         <v>1.2</v>
       </c>
-      <c r="O54" s="197"/>
+      <c r="O54" s="183"/>
     </row>
     <row r="55" spans="1:15" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="194" t="s">
+      <c r="A55" s="180" t="s">
         <v>283</v>
       </c>
-      <c r="E55" s="194" t="s">
+      <c r="E55" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="G55" s="239" t="s">
+      <c r="G55" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="H55" s="239"/>
-      <c r="I55" s="239"/>
-      <c r="J55" s="239"/>
-      <c r="K55" s="239"/>
-      <c r="L55" s="199">
+      <c r="H55" s="236"/>
+      <c r="I55" s="236"/>
+      <c r="J55" s="236"/>
+      <c r="K55" s="236"/>
+      <c r="L55" s="185">
         <v>1.73</v>
       </c>
-      <c r="M55" s="196">
+      <c r="M55" s="182">
         <v>7770</v>
       </c>
-      <c r="N55" s="196">
+      <c r="N55" s="182">
         <v>1.25</v>
       </c>
-      <c r="O55" s="197">
+      <c r="O55" s="183">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="194" t="s">
+      <c r="A56" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="E56" s="194" t="s">
+      <c r="E56" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="G56" s="239" t="s">
+      <c r="G56" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="H56" s="239"/>
-      <c r="I56" s="239"/>
-      <c r="J56" s="239"/>
-      <c r="K56" s="239"/>
-      <c r="L56" s="199">
+      <c r="H56" s="236"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="236"/>
+      <c r="K56" s="236"/>
+      <c r="L56" s="185">
         <v>1.8</v>
       </c>
-      <c r="M56" s="196">
+      <c r="M56" s="182">
         <v>7440</v>
       </c>
-      <c r="N56" s="196">
+      <c r="N56" s="182">
         <v>1.3</v>
       </c>
-      <c r="O56" s="197"/>
+      <c r="O56" s="183"/>
     </row>
     <row r="57" spans="1:15" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="194" t="s">
+      <c r="A57" s="180" t="s">
         <v>289</v>
       </c>
-      <c r="E57" s="194" t="s">
+      <c r="E57" s="180" t="s">
         <v>290</v>
       </c>
-      <c r="G57" s="239" t="s">
+      <c r="G57" s="236" t="s">
         <v>291</v>
       </c>
-      <c r="H57" s="239"/>
-      <c r="I57" s="239"/>
-      <c r="J57" s="239"/>
-      <c r="K57" s="239"/>
-      <c r="L57" s="199">
+      <c r="H57" s="236"/>
+      <c r="I57" s="236"/>
+      <c r="J57" s="236"/>
+      <c r="K57" s="236"/>
+      <c r="L57" s="185">
         <v>1.7</v>
       </c>
-      <c r="M57" s="196">
+      <c r="M57" s="182">
         <v>6650</v>
       </c>
-      <c r="N57" s="196">
+      <c r="N57" s="182">
         <v>1.05</v>
       </c>
-      <c r="O57" s="197"/>
+      <c r="O57" s="183"/>
     </row>
     <row r="58" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="194" t="s">
+      <c r="A58" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="E58" s="194" t="s">
+      <c r="E58" s="180" t="s">
         <v>293</v>
       </c>
-      <c r="G58" s="239" t="s">
+      <c r="G58" s="236" t="s">
         <v>294</v>
       </c>
-      <c r="H58" s="239"/>
-      <c r="I58" s="239"/>
-      <c r="J58" s="239"/>
-      <c r="K58" s="239"/>
-      <c r="L58" s="199">
+      <c r="H58" s="236"/>
+      <c r="I58" s="236"/>
+      <c r="J58" s="236"/>
+      <c r="K58" s="236"/>
+      <c r="L58" s="185">
         <v>0.9</v>
       </c>
-      <c r="M58" s="196">
+      <c r="M58" s="182">
         <v>2750</v>
       </c>
-      <c r="N58" s="196">
+      <c r="N58" s="182">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O58" s="197"/>
+      <c r="O58" s="183"/>
     </row>
     <row r="59" spans="1:15" ht="76.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="194" t="s">
+      <c r="A59" s="180" t="s">
         <v>295</v>
       </c>
-      <c r="E59" s="194" t="s">
+      <c r="E59" s="180" t="s">
         <v>296</v>
       </c>
-      <c r="G59" s="239" t="s">
+      <c r="G59" s="236" t="s">
         <v>297</v>
       </c>
-      <c r="H59" s="239"/>
-      <c r="I59" s="239"/>
-      <c r="J59" s="239"/>
-      <c r="K59" s="239"/>
-      <c r="L59" s="199">
+      <c r="H59" s="236"/>
+      <c r="I59" s="236"/>
+      <c r="J59" s="236"/>
+      <c r="K59" s="236"/>
+      <c r="L59" s="185">
         <v>1.71</v>
       </c>
-      <c r="M59" s="196">
+      <c r="M59" s="182">
         <v>8400</v>
       </c>
-      <c r="N59" s="196">
+      <c r="N59" s="182">
         <v>1.66</v>
       </c>
-      <c r="O59" s="197">
+      <c r="O59" s="183">
         <v>2.6</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="194" t="s">
+      <c r="A60" s="180" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="194">
+      <c r="E60" s="180">
         <v>7600</v>
       </c>
-      <c r="G60" s="239" t="s">
+      <c r="G60" s="236" t="s">
         <v>299</v>
       </c>
-      <c r="H60" s="239"/>
-      <c r="I60" s="239"/>
-      <c r="J60" s="239"/>
-      <c r="K60" s="239"/>
-      <c r="L60" s="199">
+      <c r="H60" s="236"/>
+      <c r="I60" s="236"/>
+      <c r="J60" s="236"/>
+      <c r="K60" s="236"/>
+      <c r="L60" s="185">
         <v>1.85</v>
       </c>
-      <c r="M60" s="196">
+      <c r="M60" s="182">
         <v>8640</v>
       </c>
-      <c r="N60" s="196">
+      <c r="N60" s="182">
         <v>1.7</v>
       </c>
-      <c r="O60" s="197"/>
+      <c r="O60" s="183"/>
     </row>
     <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="194" t="s">
+      <c r="A61" s="180" t="s">
         <v>300</v>
       </c>
-      <c r="E61" s="194">
+      <c r="E61" s="180">
         <v>7850</v>
       </c>
-      <c r="G61" s="239" t="s">
+      <c r="G61" s="236" t="s">
         <v>301</v>
       </c>
-      <c r="H61" s="239"/>
-      <c r="I61" s="239"/>
-      <c r="J61" s="239"/>
-      <c r="K61" s="239"/>
-      <c r="L61" s="199">
+      <c r="H61" s="236"/>
+      <c r="I61" s="236"/>
+      <c r="J61" s="236"/>
+      <c r="K61" s="236"/>
+      <c r="L61" s="185">
         <v>1.65</v>
       </c>
-      <c r="M61" s="196">
+      <c r="M61" s="182">
         <v>600</v>
       </c>
-      <c r="N61" s="196">
+      <c r="N61" s="182">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O61" s="197"/>
+      <c r="O61" s="183"/>
     </row>
     <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="194" t="s">
+      <c r="A62" s="180" t="s">
         <v>302</v>
       </c>
-      <c r="E62" s="194">
+      <c r="E62" s="180">
         <v>7850</v>
       </c>
-      <c r="G62" s="239" t="s">
+      <c r="G62" s="236" t="s">
         <v>303</v>
       </c>
-      <c r="H62" s="239"/>
-      <c r="I62" s="239"/>
-      <c r="J62" s="239"/>
-      <c r="K62" s="239"/>
-      <c r="L62" s="199">
+      <c r="H62" s="236"/>
+      <c r="I62" s="236"/>
+      <c r="J62" s="236"/>
+      <c r="K62" s="236"/>
+      <c r="L62" s="185">
         <v>1.49</v>
       </c>
-      <c r="M62" s="196">
+      <c r="M62" s="182">
         <v>8300</v>
       </c>
-      <c r="N62" s="196">
+      <c r="N62" s="182">
         <v>1.66</v>
       </c>
-      <c r="O62" s="197"/>
+      <c r="O62" s="183"/>
     </row>
     <row r="63" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="194" t="s">
+      <c r="A63" s="180" t="s">
         <v>304</v>
       </c>
-      <c r="E63" s="194" t="s">
+      <c r="E63" s="180" t="s">
         <v>305</v>
       </c>
-      <c r="G63" s="244" t="s">
+      <c r="G63" s="241" t="s">
         <v>306</v>
       </c>
-      <c r="H63" s="244"/>
-      <c r="I63" s="244"/>
-      <c r="J63" s="244"/>
-      <c r="K63" s="244"/>
-      <c r="L63" s="205">
+      <c r="H63" s="241"/>
+      <c r="I63" s="241"/>
+      <c r="J63" s="241"/>
+      <c r="K63" s="241"/>
+      <c r="L63" s="191">
         <v>1.54</v>
       </c>
-      <c r="M63" s="205">
+      <c r="M63" s="191">
         <v>7700</v>
       </c>
-      <c r="N63" s="206">
+      <c r="N63" s="192">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O63" s="197">
+      <c r="O63" s="183">
         <v>5.5</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="194" t="s">
+      <c r="A64" s="180" t="s">
         <v>307</v>
       </c>
-      <c r="E64" s="194">
+      <c r="E64" s="180">
         <v>7850</v>
       </c>
-      <c r="G64" s="244" t="s">
+      <c r="G64" s="241" t="s">
         <v>308</v>
       </c>
-      <c r="H64" s="244"/>
-      <c r="I64" s="244"/>
-      <c r="J64" s="244"/>
-      <c r="K64" s="244"/>
-      <c r="L64" s="205">
+      <c r="H64" s="241"/>
+      <c r="I64" s="241"/>
+      <c r="J64" s="241"/>
+      <c r="K64" s="241"/>
+      <c r="L64" s="191">
         <v>1.6</v>
       </c>
-      <c r="M64" s="205">
+      <c r="M64" s="191">
         <v>8000</v>
       </c>
-      <c r="N64" s="206"/>
-      <c r="O64" s="197">
+      <c r="N64" s="192"/>
+      <c r="O64" s="183">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="194" t="s">
+      <c r="A65" s="180" t="s">
         <v>309</v>
       </c>
-      <c r="E65" s="194">
+      <c r="E65" s="180">
         <v>7800</v>
       </c>
-      <c r="G65" s="244" t="s">
+      <c r="G65" s="241" t="s">
         <v>310</v>
       </c>
-      <c r="H65" s="244"/>
-      <c r="I65" s="244"/>
-      <c r="J65" s="244"/>
-      <c r="K65" s="244"/>
-      <c r="L65" s="205">
+      <c r="H65" s="241"/>
+      <c r="I65" s="241"/>
+      <c r="J65" s="241"/>
+      <c r="K65" s="241"/>
+      <c r="L65" s="191">
         <v>1.5</v>
       </c>
-      <c r="M65" s="205">
+      <c r="M65" s="191">
         <v>7600</v>
       </c>
-      <c r="N65" s="206">
+      <c r="N65" s="192">
         <v>0.98</v>
       </c>
-      <c r="O65" s="197">
+      <c r="O65" s="183">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A66" s="194" t="s">
+      <c r="A66" s="180" t="s">
         <v>311</v>
       </c>
-      <c r="E66" s="194" t="s">
+      <c r="E66" s="180" t="s">
         <v>312</v>
       </c>
-      <c r="G66" s="244" t="s">
+      <c r="G66" s="241" t="s">
         <v>313</v>
       </c>
-      <c r="H66" s="244"/>
-      <c r="I66" s="244"/>
-      <c r="J66" s="244"/>
-      <c r="K66" s="244"/>
-      <c r="L66" s="205">
+      <c r="H66" s="241"/>
+      <c r="I66" s="241"/>
+      <c r="J66" s="241"/>
+      <c r="K66" s="241"/>
+      <c r="L66" s="191">
         <v>1.6</v>
       </c>
-      <c r="M66" s="205">
+      <c r="M66" s="191">
         <v>7900</v>
       </c>
-      <c r="N66" s="206"/>
-      <c r="O66" s="197"/>
+      <c r="N66" s="192"/>
+      <c r="O66" s="183"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="194" t="s">
+      <c r="A67" s="180" t="s">
         <v>314</v>
       </c>
-      <c r="E67" s="194">
+      <c r="E67" s="180">
         <v>7820</v>
       </c>
-      <c r="G67" s="244" t="s">
+      <c r="G67" s="241" t="s">
         <v>315</v>
       </c>
-      <c r="H67" s="244"/>
-      <c r="I67" s="244"/>
-      <c r="J67" s="244"/>
-      <c r="K67" s="244"/>
-      <c r="L67" s="205">
+      <c r="H67" s="241"/>
+      <c r="I67" s="241"/>
+      <c r="J67" s="241"/>
+      <c r="K67" s="241"/>
+      <c r="L67" s="191">
         <v>1.58</v>
       </c>
-      <c r="M67" s="205">
+      <c r="M67" s="191">
         <v>7600</v>
       </c>
-      <c r="N67" s="206"/>
-      <c r="O67" s="197"/>
+      <c r="N67" s="192"/>
+      <c r="O67" s="183"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="194" t="s">
+      <c r="A68" s="180" t="s">
         <v>316</v>
       </c>
-      <c r="E68" s="194">
+      <c r="E68" s="180">
         <v>7850</v>
       </c>
-      <c r="G68" s="244" t="s">
+      <c r="G68" s="241" t="s">
         <v>317</v>
       </c>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
-      <c r="J68" s="244"/>
-      <c r="K68" s="244"/>
-      <c r="L68" s="205">
+      <c r="H68" s="241"/>
+      <c r="I68" s="241"/>
+      <c r="J68" s="241"/>
+      <c r="K68" s="241"/>
+      <c r="L68" s="191">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M68" s="205">
+      <c r="M68" s="191">
         <v>2870</v>
       </c>
-      <c r="N68" s="206">
+      <c r="N68" s="192">
         <v>1.0029999999999999</v>
       </c>
-      <c r="O68" s="197">
+      <c r="O68" s="183">
         <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="194" t="s">
+      <c r="A69" s="180" t="s">
         <v>318</v>
       </c>
-      <c r="E69" s="194">
+      <c r="E69" s="180">
         <v>7850</v>
       </c>
-      <c r="G69" s="244" t="s">
+      <c r="G69" s="241" t="s">
         <v>319</v>
       </c>
-      <c r="H69" s="244"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="244"/>
-      <c r="K69" s="244"/>
-      <c r="L69" s="205">
+      <c r="H69" s="241"/>
+      <c r="I69" s="241"/>
+      <c r="J69" s="241"/>
+      <c r="K69" s="241"/>
+      <c r="L69" s="191">
         <v>2.9</v>
       </c>
-      <c r="M69" s="205">
+      <c r="M69" s="191">
         <v>5200</v>
       </c>
-      <c r="N69" s="206">
+      <c r="N69" s="192">
         <v>0.39</v>
       </c>
-      <c r="O69" s="197"/>
+      <c r="O69" s="183"/>
     </row>
     <row r="70" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="194" t="s">
+      <c r="A70" s="180" t="s">
         <v>320</v>
       </c>
-      <c r="E70" s="194" t="s">
+      <c r="E70" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="G70" s="244" t="s">
+      <c r="G70" s="241" t="s">
         <v>322</v>
       </c>
-      <c r="H70" s="244"/>
-      <c r="I70" s="244"/>
-      <c r="J70" s="244"/>
-      <c r="K70" s="244"/>
-      <c r="L70" s="205">
+      <c r="H70" s="241"/>
+      <c r="I70" s="241"/>
+      <c r="J70" s="241"/>
+      <c r="K70" s="241"/>
+      <c r="L70" s="191">
         <v>1.42</v>
       </c>
-      <c r="M70" s="205">
+      <c r="M70" s="191">
         <v>7400</v>
       </c>
-      <c r="N70" s="206"/>
-      <c r="O70" s="197">
+      <c r="N70" s="192"/>
+      <c r="O70" s="183">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="194" t="s">
+      <c r="A71" s="180" t="s">
         <v>323</v>
       </c>
-      <c r="E71" s="194" t="s">
+      <c r="E71" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="G71" s="244" t="s">
+      <c r="G71" s="241" t="s">
         <v>324</v>
       </c>
-      <c r="H71" s="244"/>
-      <c r="I71" s="244"/>
-      <c r="J71" s="244"/>
-      <c r="K71" s="244"/>
-      <c r="L71" s="205">
+      <c r="H71" s="241"/>
+      <c r="I71" s="241"/>
+      <c r="J71" s="241"/>
+      <c r="K71" s="241"/>
+      <c r="L71" s="191">
         <v>1.7</v>
       </c>
-      <c r="M71" s="205">
+      <c r="M71" s="191">
         <v>7570</v>
       </c>
-      <c r="N71" s="206">
+      <c r="N71" s="192">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O71" s="197"/>
+      <c r="O71" s="183"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="194" t="s">
+      <c r="A72" s="180" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="194">
+      <c r="E72" s="180">
         <v>7800</v>
       </c>
-      <c r="G72" s="244" t="s">
+      <c r="G72" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="H72" s="244"/>
-      <c r="I72" s="244"/>
-      <c r="J72" s="244"/>
-      <c r="K72" s="244"/>
-      <c r="L72" s="205">
+      <c r="H72" s="241"/>
+      <c r="I72" s="241"/>
+      <c r="J72" s="241"/>
+      <c r="K72" s="241"/>
+      <c r="L72" s="191">
         <v>1.72</v>
       </c>
-      <c r="M72" s="205">
+      <c r="M72" s="191">
         <v>6960</v>
       </c>
-      <c r="N72" s="206"/>
-      <c r="O72" s="197">
+      <c r="N72" s="192"/>
+      <c r="O72" s="183">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="194" t="s">
+      <c r="A73" s="180" t="s">
         <v>327</v>
       </c>
-      <c r="E73" s="194">
+      <c r="E73" s="180">
         <v>7760</v>
       </c>
-      <c r="G73" s="244" t="s">
+      <c r="G73" s="241" t="s">
         <v>328</v>
       </c>
-      <c r="H73" s="244"/>
-      <c r="I73" s="244"/>
-      <c r="J73" s="244"/>
-      <c r="K73" s="244"/>
-      <c r="L73" s="205">
+      <c r="H73" s="241"/>
+      <c r="I73" s="241"/>
+      <c r="J73" s="241"/>
+      <c r="K73" s="241"/>
+      <c r="L73" s="191">
         <v>1.85</v>
       </c>
-      <c r="M73" s="205">
+      <c r="M73" s="191">
         <v>7680</v>
       </c>
-      <c r="N73" s="206"/>
-      <c r="O73" s="197"/>
+      <c r="N73" s="192"/>
+      <c r="O73" s="183"/>
     </row>
     <row r="74" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="194" t="s">
+      <c r="A74" s="180" t="s">
         <v>329</v>
       </c>
-      <c r="E74" s="194" t="s">
+      <c r="E74" s="180" t="s">
         <v>330</v>
       </c>
-      <c r="G74" s="244" t="s">
+      <c r="G74" s="241" t="s">
         <v>331</v>
       </c>
-      <c r="H74" s="244"/>
-      <c r="I74" s="244"/>
-      <c r="J74" s="244"/>
-      <c r="K74" s="244"/>
-      <c r="L74" s="205">
+      <c r="H74" s="241"/>
+      <c r="I74" s="241"/>
+      <c r="J74" s="241"/>
+      <c r="K74" s="241"/>
+      <c r="L74" s="191">
         <v>1.8</v>
       </c>
-      <c r="M74" s="205">
+      <c r="M74" s="191">
         <v>7400</v>
       </c>
-      <c r="N74" s="206"/>
-      <c r="O74" s="197"/>
+      <c r="N74" s="192"/>
+      <c r="O74" s="183"/>
     </row>
     <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="194" t="s">
+      <c r="A75" s="180" t="s">
         <v>332</v>
       </c>
-      <c r="E75" s="194" t="s">
+      <c r="E75" s="180" t="s">
         <v>333</v>
       </c>
-      <c r="G75" s="244" t="s">
+      <c r="G75" s="241" t="s">
         <v>334</v>
       </c>
-      <c r="H75" s="244"/>
-      <c r="I75" s="244"/>
-      <c r="J75" s="244"/>
-      <c r="K75" s="244"/>
-      <c r="L75" s="205">
+      <c r="H75" s="241"/>
+      <c r="I75" s="241"/>
+      <c r="J75" s="241"/>
+      <c r="K75" s="241"/>
+      <c r="L75" s="191">
         <v>1.79</v>
       </c>
-      <c r="M75" s="205">
+      <c r="M75" s="191">
         <v>7500</v>
       </c>
-      <c r="N75" s="205"/>
-      <c r="O75" s="197"/>
+      <c r="N75" s="191"/>
+      <c r="O75" s="183"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="194" t="s">
+      <c r="A76" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="E76" s="194">
+      <c r="E76" s="180">
         <v>7850</v>
       </c>
-      <c r="G76" s="244" t="s">
+      <c r="G76" s="241" t="s">
         <v>336</v>
       </c>
-      <c r="H76" s="244"/>
-      <c r="I76" s="244"/>
-      <c r="J76" s="244"/>
-      <c r="K76" s="244"/>
-      <c r="L76" s="205">
+      <c r="H76" s="241"/>
+      <c r="I76" s="241"/>
+      <c r="J76" s="241"/>
+      <c r="K76" s="241"/>
+      <c r="L76" s="191">
         <v>1.74</v>
       </c>
-      <c r="M76" s="205">
+      <c r="M76" s="191">
         <v>7340</v>
       </c>
-      <c r="N76" s="205"/>
-      <c r="O76" s="197"/>
+      <c r="N76" s="191"/>
+      <c r="O76" s="183"/>
     </row>
     <row r="77" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="194" t="s">
+      <c r="A77" s="180" t="s">
         <v>337</v>
       </c>
-      <c r="E77" s="194" t="s">
+      <c r="E77" s="180" t="s">
         <v>338</v>
       </c>
-      <c r="G77" s="245" t="s">
+      <c r="G77" s="242" t="s">
         <v>339</v>
       </c>
-      <c r="H77" s="245"/>
-      <c r="I77" s="245"/>
-      <c r="J77" s="245"/>
-      <c r="K77" s="245"/>
-      <c r="L77" s="205">
+      <c r="H77" s="242"/>
+      <c r="I77" s="242"/>
+      <c r="J77" s="242"/>
+      <c r="K77" s="242"/>
+      <c r="L77" s="191">
         <v>1.61</v>
       </c>
-      <c r="M77" s="205">
+      <c r="M77" s="191">
         <v>6900</v>
       </c>
-      <c r="N77" s="205"/>
-      <c r="O77" s="197"/>
+      <c r="N77" s="191"/>
+      <c r="O77" s="183"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="194" t="s">
+      <c r="A78" s="180" t="s">
         <v>340</v>
       </c>
-      <c r="E78" s="194">
+      <c r="E78" s="180">
         <v>7730</v>
       </c>
-      <c r="G78" s="244" t="s">
+      <c r="G78" s="241" t="s">
         <v>341</v>
       </c>
-      <c r="H78" s="244"/>
-      <c r="I78" s="244"/>
-      <c r="J78" s="244"/>
-      <c r="K78" s="244"/>
-      <c r="L78" s="205">
+      <c r="H78" s="241"/>
+      <c r="I78" s="241"/>
+      <c r="J78" s="241"/>
+      <c r="K78" s="241"/>
+      <c r="L78" s="191">
         <v>1.76</v>
       </c>
-      <c r="M78" s="205">
+      <c r="M78" s="191">
         <v>6670</v>
       </c>
-      <c r="N78" s="205"/>
-      <c r="O78" s="197"/>
+      <c r="N78" s="191"/>
+      <c r="O78" s="183"/>
     </row>
     <row r="79" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A79" s="194" t="s">
+      <c r="A79" s="180" t="s">
         <v>342</v>
       </c>
-      <c r="E79" s="194" t="s">
+      <c r="E79" s="180" t="s">
         <v>343</v>
       </c>
-      <c r="G79" s="244" t="s">
+      <c r="G79" s="241" t="s">
         <v>344</v>
       </c>
-      <c r="H79" s="244"/>
-      <c r="I79" s="244"/>
-      <c r="J79" s="244"/>
-      <c r="K79" s="244"/>
-      <c r="L79" s="205">
+      <c r="H79" s="241"/>
+      <c r="I79" s="241"/>
+      <c r="J79" s="241"/>
+      <c r="K79" s="241"/>
+      <c r="L79" s="191">
         <v>1.74</v>
       </c>
-      <c r="M79" s="205">
+      <c r="M79" s="191">
         <v>6840</v>
       </c>
-      <c r="N79" s="205"/>
-      <c r="O79" s="197"/>
+      <c r="N79" s="191"/>
+      <c r="O79" s="183"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="194" t="s">
+      <c r="A80" s="180" t="s">
         <v>345</v>
       </c>
-      <c r="E80" s="194">
+      <c r="E80" s="180">
         <v>7740</v>
       </c>
-      <c r="G80" s="244" t="s">
+      <c r="G80" s="241" t="s">
         <v>346</v>
       </c>
-      <c r="H80" s="244"/>
-      <c r="I80" s="244"/>
-      <c r="J80" s="244"/>
-      <c r="K80" s="244"/>
-      <c r="L80" s="205">
+      <c r="H80" s="241"/>
+      <c r="I80" s="241"/>
+      <c r="J80" s="241"/>
+      <c r="K80" s="241"/>
+      <c r="L80" s="191">
         <v>1.7</v>
       </c>
-      <c r="M80" s="205">
+      <c r="M80" s="191">
         <v>6960</v>
       </c>
-      <c r="N80" s="205"/>
-      <c r="O80" s="197"/>
+      <c r="N80" s="191"/>
+      <c r="O80" s="183"/>
     </row>
     <row r="81" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="194" t="s">
+      <c r="A81" s="180" t="s">
         <v>347</v>
       </c>
-      <c r="E81" s="194" t="s">
+      <c r="E81" s="180" t="s">
         <v>348</v>
       </c>
-      <c r="G81" s="244" t="s">
+      <c r="G81" s="241" t="s">
         <v>349</v>
       </c>
-      <c r="H81" s="244"/>
-      <c r="I81" s="244"/>
-      <c r="J81" s="244"/>
-      <c r="K81" s="244"/>
-      <c r="L81" s="205">
+      <c r="H81" s="241"/>
+      <c r="I81" s="241"/>
+      <c r="J81" s="241"/>
+      <c r="K81" s="241"/>
+      <c r="L81" s="191">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M81" s="205">
+      <c r="M81" s="191">
         <v>5050</v>
       </c>
-      <c r="N81" s="206">
+      <c r="N81" s="192">
         <v>0.41</v>
       </c>
-      <c r="O81" s="197"/>
+      <c r="O81" s="183"/>
     </row>
     <row r="82" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="194" t="s">
+      <c r="A82" s="180" t="s">
         <v>350</v>
       </c>
-      <c r="E82" s="194" t="s">
+      <c r="E82" s="180" t="s">
         <v>351</v>
       </c>
-      <c r="G82" s="244" t="s">
+      <c r="G82" s="241" t="s">
         <v>352</v>
       </c>
-      <c r="H82" s="244"/>
-      <c r="I82" s="244"/>
-      <c r="J82" s="244"/>
-      <c r="K82" s="244"/>
-      <c r="L82" s="205">
+      <c r="H82" s="241"/>
+      <c r="I82" s="241"/>
+      <c r="J82" s="241"/>
+      <c r="K82" s="241"/>
+      <c r="L82" s="191">
         <v>4</v>
       </c>
-      <c r="M82" s="205">
+      <c r="M82" s="191">
         <v>5100</v>
       </c>
-      <c r="N82" s="206">
+      <c r="N82" s="192">
         <v>0.39</v>
       </c>
-      <c r="O82" s="197">
+      <c r="O82" s="183">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="194" t="s">
+      <c r="A83" s="180" t="s">
         <v>353</v>
       </c>
-      <c r="E83" s="194" t="s">
+      <c r="E83" s="180" t="s">
         <v>354</v>
       </c>
-      <c r="G83" s="244" t="s">
+      <c r="G83" s="241" t="s">
         <v>355</v>
       </c>
-      <c r="H83" s="244"/>
-      <c r="I83" s="244"/>
-      <c r="J83" s="244"/>
-      <c r="K83" s="244"/>
-      <c r="L83" s="205">
+      <c r="H83" s="241"/>
+      <c r="I83" s="241"/>
+      <c r="J83" s="241"/>
+      <c r="K83" s="241"/>
+      <c r="L83" s="191">
         <v>2.9</v>
       </c>
-      <c r="M83" s="205">
+      <c r="M83" s="191">
         <v>5200</v>
       </c>
-      <c r="N83" s="206">
+      <c r="N83" s="192">
         <v>0.37</v>
       </c>
-      <c r="O83" s="197"/>
+      <c r="O83" s="183"/>
     </row>
     <row r="84" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="194" t="s">
+      <c r="A84" s="180" t="s">
         <v>356</v>
       </c>
-      <c r="E84" s="194" t="s">
+      <c r="E84" s="180" t="s">
         <v>357</v>
       </c>
-      <c r="G84" s="244" t="s">
+      <c r="G84" s="241" t="s">
         <v>358</v>
       </c>
-      <c r="H84" s="244"/>
-      <c r="I84" s="244"/>
-      <c r="J84" s="244"/>
-      <c r="K84" s="244"/>
-      <c r="L84" s="205">
+      <c r="H84" s="241"/>
+      <c r="I84" s="241"/>
+      <c r="J84" s="241"/>
+      <c r="K84" s="241"/>
+      <c r="L84" s="191">
         <v>1.47</v>
       </c>
-      <c r="M84" s="205">
+      <c r="M84" s="191">
         <v>5000</v>
       </c>
-      <c r="N84" s="206">
+      <c r="N84" s="192">
         <v>0.52</v>
       </c>
-      <c r="O84" s="197"/>
+      <c r="O84" s="183"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="194" t="s">
+      <c r="A85" s="180" t="s">
         <v>359</v>
       </c>
-      <c r="E85" s="194">
+      <c r="E85" s="180">
         <v>7820</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="194" t="s">
+      <c r="A86" s="180" t="s">
         <v>360</v>
       </c>
-      <c r="E86" s="194">
+      <c r="E86" s="180">
         <v>7830</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="194" t="s">
+      <c r="A87" s="180" t="s">
         <v>361</v>
       </c>
-      <c r="E87" s="194" t="s">
+      <c r="E87" s="180" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="194" t="s">
+      <c r="A88" s="180" t="s">
         <v>363</v>
       </c>
-      <c r="E88" s="194" t="s">
+      <c r="E88" s="180" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="194" t="s">
+      <c r="A89" s="180" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="194" t="s">
+      <c r="E89" s="180" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="194" t="s">
+      <c r="A90" s="180" t="s">
         <v>367</v>
       </c>
-      <c r="E90" s="194">
+      <c r="E90" s="180">
         <v>7680</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="194" t="s">
+      <c r="A91" s="180" t="s">
         <v>368</v>
       </c>
-      <c r="E91" s="194">
+      <c r="E91" s="180">
         <v>7850</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="194" t="s">
+      <c r="A92" s="180" t="s">
         <v>369</v>
       </c>
-      <c r="E92" s="194">
+      <c r="E92" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="194" t="s">
+      <c r="A93" s="180" t="s">
         <v>370</v>
       </c>
-      <c r="E93" s="194">
+      <c r="E93" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A94" s="194" t="s">
+      <c r="A94" s="180" t="s">
         <v>371</v>
       </c>
-      <c r="E94" s="194" t="s">
+      <c r="E94" s="180" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="194" t="s">
+      <c r="A95" s="180" t="s">
         <v>373</v>
       </c>
-      <c r="E95" s="194" t="s">
+      <c r="E95" s="180" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A96" s="194" t="s">
+      <c r="A96" s="180" t="s">
         <v>375</v>
       </c>
-      <c r="E96" s="194" t="s">
+      <c r="E96" s="180" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A97" s="194" t="s">
+      <c r="A97" s="180" t="s">
         <v>377</v>
       </c>
-      <c r="E97" s="194" t="s">
+      <c r="E97" s="180" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="194" t="s">
+      <c r="A98" s="180" t="s">
         <v>379</v>
       </c>
-      <c r="E98" s="194">
+      <c r="E98" s="180">
         <v>7960</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="194" t="s">
+      <c r="A99" s="180" t="s">
         <v>380</v>
       </c>
-      <c r="E99" s="194">
+      <c r="E99" s="180">
         <v>7640</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="194" t="s">
+      <c r="A100" s="180" t="s">
         <v>381</v>
       </c>
-      <c r="E100" s="194" t="s">
+      <c r="E100" s="180" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A101" s="194" t="s">
+      <c r="A101" s="180" t="s">
         <v>383</v>
       </c>
-      <c r="E101" s="194" t="s">
+      <c r="E101" s="180" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="194" t="s">
+      <c r="A102" s="180" t="s">
         <v>385</v>
       </c>
-      <c r="E102" s="194">
+      <c r="E102" s="180">
         <v>7790</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="194" t="s">
+      <c r="A103" s="180" t="s">
         <v>386</v>
       </c>
-      <c r="E103" s="194">
+      <c r="E103" s="180">
         <v>7830</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="194" t="s">
+      <c r="A104" s="180" t="s">
         <v>387</v>
       </c>
-      <c r="E104" s="194">
+      <c r="E104" s="180">
         <v>7800</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="194" t="s">
+      <c r="A105" s="180" t="s">
         <v>388</v>
       </c>
-      <c r="E105" s="194" t="s">
+      <c r="E105" s="180" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="194" t="s">
+      <c r="A106" s="180" t="s">
         <v>390</v>
       </c>
-      <c r="E106" s="194">
+      <c r="E106" s="180">
         <v>7840</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="194" t="s">
+      <c r="A107" s="180" t="s">
         <v>391</v>
       </c>
-      <c r="E107" s="194">
+      <c r="E107" s="180">
         <v>7820</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="194" t="s">
+      <c r="A108" s="180" t="s">
         <v>392</v>
       </c>
-      <c r="E108" s="194">
+      <c r="E108" s="180">
         <v>7850</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="194" t="s">
+      <c r="A109" s="180" t="s">
         <v>393</v>
       </c>
-      <c r="E109" s="194" t="s">
+      <c r="E109" s="180" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="194" t="s">
+      <c r="A110" s="180" t="s">
         <v>395</v>
       </c>
-      <c r="E110" s="194">
+      <c r="E110" s="180">
         <v>7900</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="194" t="s">
+      <c r="A111" s="180" t="s">
         <v>396</v>
       </c>
-      <c r="E111" s="194">
+      <c r="E111" s="180">
         <v>7800</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="194" t="s">
+      <c r="A112" s="180" t="s">
         <v>397</v>
       </c>
-      <c r="E112" s="194">
+      <c r="E112" s="180">
         <v>7710</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="194" t="s">
+      <c r="A113" s="180" t="s">
         <v>398</v>
       </c>
-      <c r="E113" s="194">
+      <c r="E113" s="180">
         <v>7850</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="194" t="s">
+      <c r="A114" s="180" t="s">
         <v>399</v>
       </c>
-      <c r="E114" s="194">
+      <c r="E114" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="194" t="s">
+      <c r="A115" s="180" t="s">
         <v>400</v>
       </c>
-      <c r="E115" s="194">
+      <c r="E115" s="180">
         <v>7800</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="194" t="s">
+      <c r="A116" s="180" t="s">
         <v>401</v>
       </c>
-      <c r="E116" s="194">
+      <c r="E116" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="194" t="s">
+      <c r="A117" s="180" t="s">
         <v>402</v>
       </c>
-      <c r="E117" s="194" t="s">
+      <c r="E117" s="180" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="194" t="s">
+      <c r="A118" s="180" t="s">
         <v>403</v>
       </c>
-      <c r="E118" s="194">
+      <c r="E118" s="180">
         <v>7830</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="194" t="s">
+      <c r="A119" s="180" t="s">
         <v>404</v>
       </c>
-      <c r="E119" s="194" t="s">
+      <c r="E119" s="180" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="194" t="s">
+      <c r="A120" s="180" t="s">
         <v>406</v>
       </c>
-      <c r="E120" s="194">
+      <c r="E120" s="180">
         <v>7850</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="194" t="s">
+      <c r="A121" s="180" t="s">
         <v>407</v>
       </c>
-      <c r="E121" s="194" t="s">
+      <c r="E121" s="180" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="194" t="s">
+      <c r="A122" s="180" t="s">
         <v>409</v>
       </c>
-      <c r="E122" s="194">
+      <c r="E122" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="194" t="s">
+      <c r="A123" s="180" t="s">
         <v>410</v>
       </c>
-      <c r="E123" s="194" t="s">
+      <c r="E123" s="180" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" s="194" t="s">
+      <c r="A124" s="180" t="s">
         <v>412</v>
       </c>
-      <c r="E124" s="194" t="s">
+      <c r="E124" s="180" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A125" s="194" t="s">
+      <c r="A125" s="180" t="s">
         <v>414</v>
       </c>
-      <c r="E125" s="194" t="s">
+      <c r="E125" s="180" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="194" t="s">
+      <c r="A126" s="180" t="s">
         <v>416</v>
       </c>
-      <c r="E126" s="194">
+      <c r="E126" s="180">
         <v>7800</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="194" t="s">
+      <c r="A127" s="180" t="s">
         <v>417</v>
       </c>
-      <c r="E127" s="194" t="s">
+      <c r="E127" s="180" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="194" t="s">
+      <c r="A128" s="180" t="s">
         <v>419</v>
       </c>
-      <c r="E128" s="194">
+      <c r="E128" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="194" t="s">
+      <c r="A129" s="180" t="s">
         <v>420</v>
       </c>
-      <c r="E129" s="194">
+      <c r="E129" s="180">
         <v>7800</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="194" t="s">
+      <c r="A130" s="180" t="s">
         <v>421</v>
       </c>
-      <c r="E130" s="194">
+      <c r="E130" s="180">
         <v>7820</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="194" t="s">
+      <c r="A131" s="180" t="s">
         <v>422</v>
       </c>
-      <c r="E131" s="194">
+      <c r="E131" s="180">
         <v>7820</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="194" t="s">
+      <c r="A132" s="180" t="s">
         <v>423</v>
       </c>
-      <c r="E132" s="194" t="s">
+      <c r="E132" s="180" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="194" t="s">
+      <c r="A133" s="180" t="s">
         <v>425</v>
       </c>
-      <c r="E133" s="194">
+      <c r="E133" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="194" t="s">
+      <c r="A134" s="180" t="s">
         <v>426</v>
       </c>
-      <c r="E134" s="194">
+      <c r="E134" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="194" t="s">
+      <c r="A135" s="180" t="s">
         <v>427</v>
       </c>
-      <c r="E135" s="194">
+      <c r="E135" s="180">
         <v>7500</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="194" t="s">
+      <c r="A136" s="180" t="s">
         <v>428</v>
       </c>
-      <c r="E136" s="194">
+      <c r="E136" s="180">
         <v>7820</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="194" t="s">
+      <c r="A137" s="180" t="s">
         <v>429</v>
       </c>
-      <c r="E137" s="194">
+      <c r="E137" s="180">
         <v>7820</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="194" t="s">
+      <c r="A138" s="180" t="s">
         <v>430</v>
       </c>
-      <c r="E138" s="194">
+      <c r="E138" s="180">
         <v>7860</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="194" t="s">
+      <c r="A139" s="180" t="s">
         <v>431</v>
       </c>
-      <c r="E139" s="194" t="s">
+      <c r="E139" s="180" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="194" t="s">
+      <c r="A140" s="180" t="s">
         <v>433</v>
       </c>
-      <c r="E140" s="194">
+      <c r="E140" s="180">
         <v>7820</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="194" t="s">
+      <c r="A141" s="180" t="s">
         <v>434</v>
       </c>
-      <c r="E141" s="194">
+      <c r="E141" s="180">
         <v>7800</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142" s="194" t="s">
+      <c r="A142" s="180" t="s">
         <v>435</v>
       </c>
-      <c r="E142" s="194" t="s">
+      <c r="E142" s="180" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="194" t="s">
+      <c r="A143" s="180" t="s">
         <v>437</v>
       </c>
-      <c r="E143" s="194" t="s">
+      <c r="E143" s="180" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="194" t="s">
+      <c r="A144" s="180" t="s">
         <v>439</v>
       </c>
-      <c r="E144" s="194">
+      <c r="E144" s="180">
         <v>7900</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="194" t="s">
+      <c r="A145" s="180" t="s">
         <v>440</v>
       </c>
-      <c r="E145" s="194" t="s">
+      <c r="E145" s="180" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="194" t="s">
+      <c r="A146" s="180" t="s">
         <v>442</v>
       </c>
-      <c r="E146" s="194">
+      <c r="E146" s="180">
         <v>7210</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="194" t="s">
+      <c r="A147" s="180" t="s">
         <v>443</v>
       </c>
-      <c r="E147" s="194">
+      <c r="E147" s="180">
         <v>8160</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="194" t="s">
+      <c r="A148" s="180" t="s">
         <v>444</v>
       </c>
-      <c r="E148" s="194">
+      <c r="E148" s="180">
         <v>8164</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" s="194" t="s">
+      <c r="A149" s="180" t="s">
         <v>445</v>
       </c>
-      <c r="E149" s="194">
+      <c r="E149" s="180">
         <v>8040</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="194" t="s">
+      <c r="A150" s="180" t="s">
         <v>446</v>
       </c>
-      <c r="E150" s="194">
+      <c r="E150" s="180">
         <v>7700</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A151" s="194" t="s">
+      <c r="A151" s="180" t="s">
         <v>447</v>
       </c>
-      <c r="E151" s="194">
+      <c r="E151" s="180">
         <v>8400</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A152" s="194" t="s">
+      <c r="A152" s="180" t="s">
         <v>448</v>
       </c>
-      <c r="E152" s="194">
+      <c r="E152" s="180">
         <v>8210</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="194" t="s">
+      <c r="A153" s="180" t="s">
         <v>449</v>
       </c>
-      <c r="E153" s="194">
+      <c r="E153" s="180">
         <v>7900</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="194" t="s">
+      <c r="A154" s="180" t="s">
         <v>450</v>
       </c>
-      <c r="E154" s="194">
+      <c r="E154" s="180">
         <v>8350</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A155" s="194" t="s">
+      <c r="A155" s="180" t="s">
         <v>451</v>
       </c>
-      <c r="E155" s="194">
+      <c r="E155" s="180">
         <v>8110</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="194" t="s">
+      <c r="A156" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="E156" s="194">
+      <c r="E156" s="180">
         <v>8200</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157" s="194" t="s">
+      <c r="A157" s="180" t="s">
         <v>453</v>
       </c>
-      <c r="E157" s="194">
+      <c r="E157" s="180">
         <v>8700</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A158" s="194" t="s">
+      <c r="A158" s="180" t="s">
         <v>454</v>
       </c>
-      <c r="E158" s="194">
+      <c r="E158" s="180">
         <v>8570</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="194" t="s">
+      <c r="A159" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="E159" s="194">
+      <c r="E159" s="180">
         <v>8250</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="194" t="s">
+      <c r="A160" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="E160" s="194">
+      <c r="E160" s="180">
         <v>8220</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="194" t="s">
+      <c r="A161" s="180" t="s">
         <v>457</v>
       </c>
-      <c r="E161" s="194">
+      <c r="E161" s="180">
         <v>8790</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="194" t="s">
+      <c r="A162" s="180" t="s">
         <v>458</v>
       </c>
-      <c r="E162" s="194">
+      <c r="E162" s="180">
         <v>8790</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="194" t="s">
+      <c r="A163" s="180" t="s">
         <v>459</v>
       </c>
-      <c r="E163" s="194">
+      <c r="E163" s="180">
         <v>8200</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A164" s="194" t="s">
+      <c r="A164" s="180" t="s">
         <v>460</v>
       </c>
-      <c r="E164" s="194">
+      <c r="E164" s="180">
         <v>8360</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A165" s="194" t="s">
+      <c r="A165" s="180" t="s">
         <v>461</v>
       </c>
-      <c r="E165" s="194">
+      <c r="E165" s="180">
         <v>8000</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A166" s="194" t="s">
+      <c r="A166" s="180" t="s">
         <v>462</v>
       </c>
-      <c r="E166" s="194">
+      <c r="E166" s="180">
         <v>8470</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="194" t="s">
+      <c r="A167" s="180" t="s">
         <v>463</v>
       </c>
-      <c r="E167" s="194">
+      <c r="E167" s="180">
         <v>8570</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="194" t="s">
+      <c r="A168" s="180" t="s">
         <v>464</v>
       </c>
-      <c r="E168" s="194">
+      <c r="E168" s="180">
         <v>7900</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A169" s="194" t="s">
+      <c r="A169" s="180" t="s">
         <v>465</v>
       </c>
-      <c r="E169" s="194">
+      <c r="E169" s="180">
         <v>8320</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="194" t="s">
+      <c r="A170" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="E170" s="194">
+      <c r="E170" s="180">
         <v>8430</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="194" t="s">
+      <c r="A171" s="180" t="s">
         <v>467</v>
       </c>
-      <c r="E171" s="194">
+      <c r="E171" s="180">
         <v>8200</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="194" t="s">
+      <c r="A172" s="180" t="s">
         <v>468</v>
       </c>
-      <c r="E172" s="194">
+      <c r="E172" s="180">
         <v>8400</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="194" t="s">
+      <c r="A173" s="180" t="s">
         <v>469</v>
       </c>
-      <c r="E173" s="194">
+      <c r="E173" s="180">
         <v>8300</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A174" s="194" t="s">
+      <c r="A174" s="180" t="s">
         <v>470</v>
       </c>
-      <c r="E174" s="194">
+      <c r="E174" s="180">
         <v>8300</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="194" t="s">
+      <c r="A175" s="180" t="s">
         <v>471</v>
       </c>
-      <c r="E175" s="194">
+      <c r="E175" s="180">
         <v>8200</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="194" t="s">
+      <c r="A176" s="180" t="s">
         <v>472</v>
       </c>
-      <c r="E176" s="194">
+      <c r="E176" s="180">
         <v>8400</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="194" t="s">
+      <c r="A177" s="180" t="s">
         <v>473</v>
       </c>
-      <c r="E177" s="194">
+      <c r="E177" s="180">
         <v>7190</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="194" t="s">
+      <c r="A178" s="180" t="s">
         <v>474</v>
       </c>
-      <c r="E178" s="194" t="s">
+      <c r="E178" s="180" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="194" t="s">
+      <c r="A179" s="180" t="s">
         <v>475</v>
       </c>
-      <c r="E179" s="194">
+      <c r="E179" s="180">
         <v>7830</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="194" t="s">
+      <c r="A180" s="180" t="s">
         <v>476</v>
       </c>
-      <c r="E180" s="194">
+      <c r="E180" s="180">
         <v>8000</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="194" t="s">
+      <c r="A181" s="180" t="s">
         <v>477</v>
       </c>
-      <c r="E181" s="194">
+      <c r="E181" s="180">
         <v>8200</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="194" t="s">
+      <c r="A182" s="180" t="s">
         <v>478</v>
       </c>
-      <c r="E182" s="194">
+      <c r="E182" s="180">
         <v>8300</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="194" t="s">
+      <c r="A183" s="180" t="s">
         <v>479</v>
       </c>
-      <c r="E183" s="194">
+      <c r="E183" s="180">
         <v>8300</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="194" t="s">
+      <c r="A184" s="180" t="s">
         <v>480</v>
       </c>
-      <c r="E184" s="194">
+      <c r="E184" s="180">
         <v>8300</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="194" t="s">
+      <c r="A185" s="180" t="s">
         <v>481</v>
       </c>
-      <c r="E185" s="194">
+      <c r="E185" s="180">
         <v>8800</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="194" t="s">
+      <c r="A186" s="180" t="s">
         <v>482</v>
       </c>
-      <c r="E186" s="194">
+      <c r="E186" s="180">
         <v>7830</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A187" s="194" t="s">
+      <c r="A187" s="180" t="s">
         <v>483</v>
       </c>
-      <c r="E187" s="194" t="s">
+      <c r="E187" s="180" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A188" s="194" t="s">
+      <c r="A188" s="180" t="s">
         <v>485</v>
       </c>
-      <c r="E188" s="194" t="s">
+      <c r="E188" s="180" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="194" t="s">
+      <c r="A189" s="180" t="s">
         <v>487</v>
       </c>
-      <c r="E189" s="194">
+      <c r="E189" s="180">
         <v>7810</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A190" s="194" t="s">
+      <c r="A190" s="180" t="s">
         <v>488</v>
       </c>
-      <c r="E190" s="194" t="s">
+      <c r="E190" s="180" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A191" s="194" t="s">
+      <c r="A191" s="180" t="s">
         <v>490</v>
       </c>
-      <c r="E191" s="194" t="s">
+      <c r="E191" s="180" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="194" t="s">
+      <c r="A192" s="180" t="s">
         <v>492</v>
       </c>
-      <c r="E192" s="194">
+      <c r="E192" s="180">
         <v>7650</v>
       </c>
     </row>
